--- a/src/analysis_examples/er4000/results_er4000/animal_02/cosinor_per_day_fixed_period_animal_02_tmp.xlsx
+++ b/src/analysis_examples/er4000/results_er4000/animal_02/cosinor_per_day_fixed_period_animal_02_tmp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -574,60 +574,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.12000000000033</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>8.147416666726137e-05</v>
+        <v>0.06805314503389515</v>
       </c>
       <c r="I2" t="n">
-        <v>8.147416666726137e-05</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>0.06805314503389515</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.04097173541309318</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.04097173541309318</v>
+      </c>
       <c r="L2" t="n">
-        <v>0.9051235480352915</v>
+        <v>0.6870360282260961</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.5071168421524845, 1.3031302539180984]</t>
+          <t>[-0.11460945756616425, 1.4886815140183565]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0001138386920214174</v>
+        <v>0.089166734017319</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001138386920214174</v>
+        <v>0.089166734017319</v>
       </c>
       <c r="P2" t="n">
-        <v>1.704447665911578</v>
+        <v>-0.5031579825569237</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1761317842268078, 2.232763547596349]</t>
+          <t>[-2.4340267406191183, 1.427710775505271]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.22323777262956e-06</v>
+        <v>0.5935785106464988</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22323777262956e-06</v>
+        <v>0.5935785106464988</v>
       </c>
       <c r="T2" t="n">
-        <v>36.94909790229752</v>
+        <v>37.41764373564765</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[36.70754080133107, 37.19065500326396]</t>
+          <t>[36.99715054445017, 37.83813692684513]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.57693693693718</v>
+        <v>1.761761761761761</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.54882882882904</v>
+        <v>-4.998998998998997</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.60504504504532</v>
+        <v>8.522522522522518</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -660,60 +664,64 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.12000000000033</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>9.455941263414314e-05</v>
+        <v>0.357193899056416</v>
       </c>
       <c r="I3" t="n">
-        <v>9.455941263414314e-05</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0.357193899056416</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9151859688325064</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9151859688325064</v>
+      </c>
       <c r="L3" t="n">
-        <v>0.9641012243817286</v>
+        <v>0.2274308378327774</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.554446111922438, 1.3737563368410193]</t>
+          <t>[-0.19301564944348826, 0.6478773251090431]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7.696661709344355e-05</v>
+        <v>0.2733169608684474</v>
       </c>
       <c r="O3" t="n">
-        <v>7.696661709344355e-05</v>
+        <v>0.2733169608684474</v>
       </c>
       <c r="P3" t="n">
-        <v>1.603816069400195</v>
+        <v>-2.993789996213696</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0755001877154253, 2.132131951084965]</t>
+          <t>[-6.094501063720739, 0.10692107129334616]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.925852830237829e-06</v>
+        <v>0.05769089952563067</v>
       </c>
       <c r="S3" t="n">
-        <v>2.925852830237829e-06</v>
+        <v>0.05769089952563067</v>
       </c>
       <c r="T3" t="n">
-        <v>36.96914921720015</v>
+        <v>37.00314078354843</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[36.70869287620374, 37.22960555819657]</t>
+          <t>[36.76813506603982, 37.238146501057045]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>17.96324324324349</v>
+        <v>10.48248248248248</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.93513513513535</v>
+        <v>-0.3743743743743746</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.99135135135162</v>
+        <v>21.33933933933934</v>
       </c>
     </row>
     <row r="4">
@@ -746,60 +754,64 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.12000000000033</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>6.844087963031598e-09</v>
+        <v>0.03322959073335707</v>
       </c>
       <c r="I4" t="n">
-        <v>6.844087963031598e-09</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>0.03322959073335707</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.08468370562549132</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.08468370562549132</v>
+      </c>
       <c r="L4" t="n">
-        <v>0.9765435517112735</v>
+        <v>1.214544747402666</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0.757997248173595, 1.195089855248952]</t>
+          <t>[0.048935951297508495, 2.3801535435078236]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.891784254392519e-09</v>
+        <v>0.0418878348284244</v>
       </c>
       <c r="O4" t="n">
-        <v>6.891784254392519e-09</v>
+        <v>0.0418878348284244</v>
       </c>
       <c r="P4" t="n">
-        <v>1.616395018964117</v>
+        <v>1.905710858934349</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.364816027685655, 1.8679740102425795]</t>
+          <t>[0.6855527512338089, 3.12586896663489]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>9.791056854169256e-12</v>
+        <v>0.003848766174506579</v>
       </c>
       <c r="S4" t="n">
-        <v>9.791056854169256e-12</v>
+        <v>0.003848766174506579</v>
       </c>
       <c r="T4" t="n">
-        <v>37.01617874519889</v>
+        <v>36.73200503936143</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[36.875621028783, 37.15673646161477]</t>
+          <t>[36.114313254341596, 37.349696824381255]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>17.9149549549552</v>
+        <v>15.32732732732732</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.94918918918942</v>
+        <v>11.05505505505505</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.88072072072098</v>
+        <v>19.5995995995996</v>
       </c>
     </row>
     <row r="5">
@@ -832,60 +844,64 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.12000000000033</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>6.009580689747551e-07</v>
+        <v>0.002899968954653054</v>
       </c>
       <c r="I5" t="n">
-        <v>6.009580689747551e-07</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>0.002899968954653054</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9669597150765565</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9669597150765565</v>
+      </c>
       <c r="L5" t="n">
-        <v>1.088733944069272</v>
+        <v>0.9011402983184134</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.739678869840052, 1.437789018298492]</t>
+          <t>[0.3340107963417758, 1.468269800295051]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.992522334681723e-06</v>
+        <v>0.00337496020245065</v>
       </c>
       <c r="O5" t="n">
-        <v>1.992522334681723e-06</v>
+        <v>0.00337496020245065</v>
       </c>
       <c r="P5" t="n">
-        <v>1.805079262422964</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.4402897250691948, 2.169868799776734]</t>
+          <t>[0.698131700797731, 2.157289850212811]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.170651797721689e-09</v>
+        <v>0.0005501663151818992</v>
       </c>
       <c r="S5" t="n">
-        <v>1.170651797721689e-09</v>
+        <v>0.0005501663151818992</v>
       </c>
       <c r="T5" t="n">
-        <v>36.932275981613</v>
+        <v>36.53350258935393</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[36.72712549536668, 37.13742646785933]</t>
+          <t>[36.21003590788734, 36.85696927082052]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>17.19063063063087</v>
+        <v>17.001001001001</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.79027027027049</v>
+        <v>14.44644644644644</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.59099099099124</v>
+        <v>19.55555555555556</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -918,60 +934,64 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.12000000000033</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>4.807671827311566e-08</v>
+        <v>0.1887922058274811</v>
       </c>
       <c r="I6" t="n">
-        <v>4.807671827311566e-08</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>0.1887922058274811</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8231958495259459</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8231958495259459</v>
+      </c>
       <c r="L6" t="n">
-        <v>1.125976713717787</v>
+        <v>0.5203994685948388</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.837211772658641, 1.4147416547769325]</t>
+          <t>[-0.2542348426237133, 1.2950337798133909]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>6.624475812344599e-08</v>
+        <v>0.1769771633532455</v>
       </c>
       <c r="O6" t="n">
-        <v>6.624475812344599e-08</v>
+        <v>0.1769771633532455</v>
       </c>
       <c r="P6" t="n">
-        <v>1.641552918091963</v>
+        <v>-2.327105669325773</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.352237078121731, 1.9308687580621955]</t>
+          <t>[-5.465553585524585, 0.8113422468730391]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>9.92823601109194e-11</v>
+        <v>0.1380092978664869</v>
       </c>
       <c r="S6" t="n">
-        <v>9.92823601109194e-11</v>
+        <v>0.1380092978664869</v>
       </c>
       <c r="T6" t="n">
-        <v>37.01626803491487</v>
+        <v>37.32567390819303</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[36.83474639330965, 37.197789676520095]</t>
+          <t>[36.927287682762454, 37.72406013362361]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>17.81837837837863</v>
+        <v>8.148148148148149</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.70774774774798</v>
+        <v>-2.840840840840839</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.92900900900927</v>
+        <v>19.13713713713714</v>
       </c>
     </row>
     <row r="7">
@@ -999,65 +1019,65 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1_control_dl</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.12000000000033</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.660448277429616e-06</v>
+        <v>1.508144964468272e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>1.660448277429616e-06</v>
+        <v>1.508144964468272e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.103151701174085</v>
+        <v>1.2824311779823</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.7596077742643175, 1.4466956280838517]</t>
+          <t>[0.9717786080292079, 1.5930837479353919]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.30981738100111e-06</v>
+        <v>2.608319671359993e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.30981738100111e-06</v>
+        <v>2.608319671359993e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>1.566079220708425</v>
+        <v>2.899447874484274</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.2012896833546547, 1.9308687580621955]</t>
+          <t>[2.6227109840779654, 3.176184764890582]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.357282775060753e-08</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="S7" t="n">
-        <v>1.357282775060753e-08</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="T7" t="n">
-        <v>36.84132955812762</v>
+        <v>36.58575950437124</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[36.61930727288251, 37.06335184337273]</t>
+          <t>[36.392666453634654, 36.778852555107825]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>18.10810810810836</v>
+        <v>12.83337337337353</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.70774774774798</v>
+        <v>11.78380380380394</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.50846846846874</v>
+        <v>13.88294294294311</v>
       </c>
     </row>
     <row r="8">
@@ -1085,65 +1105,65 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1_control_dl</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.12000000000033</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003196311564743759</v>
+        <v>1.607110078216678e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003196311564743759</v>
+        <v>1.607110078216678e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.7041550975646302</v>
+        <v>0.7120044106563803</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0.276553387237211, 1.1317568078920495]</t>
+          <t>[0.4306844329491746, 0.993324388363586]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.002546491332984457</v>
+        <v>3.226683509360839e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002546491332984457</v>
+        <v>3.226683509360839e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>1.50318447288881</v>
+        <v>3.012658420559581</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.7107106503616549, 2.295658295415965]</t>
+          <t>[2.534658337130503, 3.490658503988659]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0007415152750913645</v>
+        <v>1.406808003423521e-11</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0007415152750913645</v>
+        <v>1.406808003423521e-11</v>
       </c>
       <c r="T8" t="n">
-        <v>36.9979578981281</v>
+        <v>36.4394877770103</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[36.73272103368214, 37.26319476257406]</t>
+          <t>[36.271675308001946, 36.60730024601865]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>18.3495495495498</v>
+        <v>12.40400400400415</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.3073873873876</v>
+        <v>10.59111111111124</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.39171171171201</v>
+        <v>14.21689689689707</v>
       </c>
     </row>
     <row r="9">
@@ -1171,65 +1191,65 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01172654615541624</v>
+        <v>5.915263595490661e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01172654615541624</v>
+        <v>5.915263595490661e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.7598032820150102</v>
+        <v>0.7513452539633612</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.19503192058767738, 1.324574643442343]</t>
+          <t>[0.4248040229671233, 1.077886484959599]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.01078355680737753</v>
+        <v>9.97277302579036e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01078355680737753</v>
+        <v>9.97277302579036e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.729605565039425</v>
+        <v>2.974921571867812</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.7107106503616549, 2.7485004797171957]</t>
+          <t>[2.4591846397469648, 3.490658503988659]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.001985624789300422</v>
+        <v>7.328559981090166e-11</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001985624789300422</v>
+        <v>7.328559981090166e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>36.88129530640764</v>
+        <v>36.40847433774879</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[36.54641427579763, 37.21617633701764]</t>
+          <t>[36.21291640867738, 36.60403226682019]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>17.30642642642664</v>
+        <v>12.54712712712728</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.43399399399416</v>
+        <v>10.59111111111124</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.17885885885912</v>
+        <v>14.50314314314332</v>
       </c>
     </row>
     <row r="10">
@@ -1257,65 +1277,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>9.147792223718199e-08</v>
+        <v>7.107969514086321e-07</v>
       </c>
       <c r="I10" t="n">
-        <v>9.147792223718199e-08</v>
+        <v>7.107969514086321e-07</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1.0732290000958</v>
+        <v>1.20620688065134</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.7562947819065045, 1.390163218285096]</t>
+          <t>[0.7993446751316142, 1.6130690861710661]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>5.97056798001816e-07</v>
+        <v>4.071274877448516e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>5.97056798001816e-07</v>
+        <v>4.071274877448516e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>1.855395060678656</v>
+        <v>2.874289975356427</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.540921321580579, 2.169868799776734]</t>
+          <t>[2.5220793875665803, 3.226500563146274]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.827516164596091e-11</v>
+        <v>9.725553695716371e-14</v>
       </c>
       <c r="S10" t="n">
-        <v>4.827516164596091e-11</v>
+        <v>9.725553695716371e-14</v>
       </c>
       <c r="T10" t="n">
-        <v>36.8870027138251</v>
+        <v>36.6107544977054</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[36.708066961344855, 37.065938466305354]</t>
+          <t>[36.38118147776546, 36.84032751764534]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>16.82834834834856</v>
+        <v>12.92878878878894</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.63315315315335</v>
+        <v>11.59297297297311</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.02354354354377</v>
+        <v>14.26460460460478</v>
       </c>
     </row>
     <row r="11">
@@ -1343,65 +1363,65 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004402220179918981</v>
+        <v>5.735692155928174e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004402220179918981</v>
+        <v>5.735692155928174e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.8234778499426376</v>
+        <v>1.013638447497456</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.2054657737037502, 1.441489926181525]</t>
+          <t>[0.5375147643420739, 1.4897621306528386]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.01144913952797788</v>
+        <v>0.0002338608542216125</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01144913952797788</v>
+        <v>0.0002338608542216125</v>
       </c>
       <c r="P11" t="n">
-        <v>2.283079345852042</v>
+        <v>2.823974177100735</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.603816069400195, 2.962342622303889]</t>
+          <t>[2.3082372449798876, 3.339711109221582]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>6.676860118126626e-07</v>
+        <v>1.902609181314574e-10</v>
       </c>
       <c r="S11" t="n">
-        <v>6.676860118126626e-07</v>
+        <v>1.902609181314574e-10</v>
       </c>
       <c r="T11" t="n">
-        <v>36.62870968402808</v>
+        <v>36.56440348914241</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[36.308168358257745, 36.94925100979842]</t>
+          <t>[36.3012884414743, 36.82751853681053]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>15.20288288288307</v>
+        <v>13.11961961961978</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.62126126126142</v>
+        <v>11.16360360360374</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.78450450450472</v>
+        <v>15.07563563563582</v>
       </c>
     </row>
     <row r="12">
@@ -1429,65 +1449,65 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.686528988111615e-05</v>
+        <v>7.101146027344019e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>3.686528988111615e-05</v>
+        <v>7.101146027344019e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.074795976112441</v>
+        <v>1.008199423311137</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.6137811692914426, 1.5358107829334386]</t>
+          <t>[0.5838819000113453, 1.432516946610928]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>8.581305769905789e-05</v>
+        <v>6.886263677485793e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>8.581305769905789e-05</v>
+        <v>6.886263677485793e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>1.754763464167272</v>
+        <v>3.125868966634889</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.2516054816103495, 2.257921446724195]</t>
+          <t>[2.5975530849501194, 3.654184848319659]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.822696788002844e-07</v>
+        <v>4.581446333418171e-11</v>
       </c>
       <c r="S12" t="n">
-        <v>3.822696788002844e-07</v>
+        <v>4.581446333418171e-11</v>
       </c>
       <c r="T12" t="n">
-        <v>36.98652279409405</v>
+        <v>36.76321571000827</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[36.71845374263634, 37.25459184555176]</t>
+          <t>[36.49693417753665, 37.029497242479884]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1517,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>17.21081081081102</v>
+        <v>11.97463463463478</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.29849849849869</v>
+        <v>9.970910910911034</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.12312312312335</v>
+        <v>13.97835835835853</v>
       </c>
     </row>
     <row r="13">
@@ -1515,65 +1535,65 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>5.105508809055692e-07</v>
+        <v>0.008727827126290721</v>
       </c>
       <c r="I13" t="n">
-        <v>5.105508809055692e-07</v>
+        <v>0.008727827126290721</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.9383528254452251</v>
+        <v>0.6876281305176271</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.6529527829178505, 1.2237528679725997]</t>
+          <t>[0.20275734313752736, 1.1724989178977268]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>9.263748395049731e-07</v>
+        <v>0.007658926353367512</v>
       </c>
       <c r="O13" t="n">
-        <v>9.263748395049731e-07</v>
+        <v>0.007658926353367512</v>
       </c>
       <c r="P13" t="n">
-        <v>1.704447665911579</v>
+        <v>3.100711067507043</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.3773949772495788, 2.0315003545735797]</t>
+          <t>[2.119553001521041, 4.081869133493045]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.649354234942393e-10</v>
+        <v>1.650552054810461e-06</v>
       </c>
       <c r="S13" t="n">
-        <v>4.649354234942393e-10</v>
+        <v>1.650552054810461e-06</v>
       </c>
       <c r="T13" t="n">
-        <v>36.87951078274605</v>
+        <v>36.81358081808069</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[36.70543887638212, 37.05358268910999]</t>
+          <t>[36.52081628936723, 37.10634534679416]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>17.40204204204226</v>
+        <v>12.07005005005019</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.15903903903924</v>
+        <v>8.348848848848945</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.64504504504528</v>
+        <v>15.79125125125144</v>
       </c>
     </row>
     <row r="14">
@@ -1601,65 +1621,65 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0003533114105200852</v>
+        <v>0.03412834857253888</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0003533114105200852</v>
+        <v>0.03412834857253888</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.91041786463569</v>
+        <v>0.4800289533557276</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.40647121459853963, 1.4143645146728403]</t>
+          <t>[0.02160092521823387, 0.9384569814932213]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.001159867505026169</v>
+        <v>0.04098192269924494</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001159867505026169</v>
+        <v>0.04098192269924494</v>
       </c>
       <c r="P14" t="n">
-        <v>1.893131909370426</v>
+        <v>2.899447874484274</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.2893423303021168, 2.4969214884387343]</t>
+          <t>[1.628973968528042, 4.1699217804405055]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.848936662662837e-06</v>
+        <v>0.0001094040464648671</v>
       </c>
       <c r="S14" t="n">
-        <v>1.848936662662837e-06</v>
+        <v>0.0001094040464648671</v>
       </c>
       <c r="T14" t="n">
-        <v>36.87744092441371</v>
+        <v>36.52695518760889</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[36.6035929745485, 37.151288874278926]</t>
+          <t>[36.276656114896035, 36.77725426032175]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>16.68492492492513</v>
+        <v>12.83337337337353</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.39015015015033</v>
+        <v>8.014894894894994</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.97969969969994</v>
+        <v>17.65185185185206</v>
       </c>
     </row>
     <row r="15">
@@ -1687,65 +1707,65 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.516958780811706e-10</v>
+        <v>0.01248751812844406</v>
       </c>
       <c r="I15" t="n">
-        <v>1.516958780811706e-10</v>
+        <v>0.01248751812844406</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>1.242502981085082</v>
+        <v>0.6719296574281302</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[1.007235680787904, 1.4777702813822593]</t>
+          <t>[0.09246865647953584, 1.2513906583767245]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.661135838939344e-10</v>
+        <v>0.02512682324032989</v>
       </c>
       <c r="O15" t="n">
-        <v>3.661135838939344e-10</v>
+        <v>0.02512682324032989</v>
       </c>
       <c r="P15" t="n">
-        <v>1.742184514603348</v>
+        <v>-2.490632013656773</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.5283423720166551, 1.9560266571900415]</t>
+          <t>[-3.270526886620004, -1.7107371406935417]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.005862060310392e-13</v>
+        <v>1.418394026897474e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>1.005862060310392e-13</v>
+        <v>1.418394026897474e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>37.09841558913154</v>
+        <v>36.64186473424287</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[36.9545077371717, 37.24232344109138]</t>
+          <t>[36.342085188358226, 36.94164428012752]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1755,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>17.25861861861883</v>
+        <v>9.44612612612624</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44588588588609</v>
+        <v>6.488248248248329</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.07135135135158</v>
+        <v>12.40400400400415</v>
       </c>
     </row>
     <row r="16">
@@ -1773,65 +1793,65 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.044847430797802e-09</v>
+        <v>0.001246080737838828</v>
       </c>
       <c r="I16" t="n">
-        <v>1.044847430797802e-09</v>
+        <v>0.001246080737838828</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.151427362493745</v>
+        <v>0.8843778782722289</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[0.9182320246975095, 1.384622700289981]</t>
+          <t>[0.3556085922080463, 1.4131471643364115]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.216147182958593e-09</v>
+        <v>0.002244798599557951</v>
       </c>
       <c r="O16" t="n">
-        <v>1.216147182958593e-09</v>
+        <v>0.002244798599557951</v>
       </c>
       <c r="P16" t="n">
-        <v>1.628973968528041</v>
+        <v>-2.918316298830158</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.4025528763774258, 1.8553950606786564]</t>
+          <t>[-3.635316423973775, -2.2013161736865414]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.130207039068409e-12</v>
+        <v>3.293983819041557e-08</v>
       </c>
       <c r="S16" t="n">
-        <v>1.130207039068409e-12</v>
+        <v>3.293983819041557e-08</v>
       </c>
       <c r="T16" t="n">
-        <v>36.92035158210579</v>
+        <v>36.66679406984559</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[36.77198630150001, 37.06871686271158]</t>
+          <t>[36.365513183880495, 36.96807495581069]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1841,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>17.6888888888891</v>
+        <v>11.06818818818832</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.82834834834855</v>
+        <v>8.348848848848949</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.54942942942965</v>
+        <v>13.78752752752769</v>
       </c>
     </row>
     <row r="17">
@@ -1859,65 +1879,65 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.999366873173258e-07</v>
+        <v>0.002493644790325211</v>
       </c>
       <c r="I17" t="n">
-        <v>1.999366873173258e-07</v>
+        <v>0.002493644790325211</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.193936054955227</v>
+        <v>0.8741028363147443</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.8529652069167, 1.5349069029937539]</t>
+          <t>[0.2535091899482076, 1.494696482681281]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.594510300519715e-07</v>
+        <v>0.008017270069784033</v>
       </c>
       <c r="O17" t="n">
-        <v>3.594510300519715e-07</v>
+        <v>0.008017270069784033</v>
       </c>
       <c r="P17" t="n">
-        <v>1.754763464167272</v>
+        <v>-2.188737224122619</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.4151318259413497, 2.094395102393195]</t>
+          <t>[-2.8554215510105427, -1.522052897234695]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>5.429074967366887e-10</v>
+        <v>9.467030981369362e-07</v>
       </c>
       <c r="S17" t="n">
-        <v>5.429074967366887e-10</v>
+        <v>9.467030981369362e-07</v>
       </c>
       <c r="T17" t="n">
-        <v>36.91262648086219</v>
+        <v>35.85372044705063</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[36.703982271861484, 37.12127068986289]</t>
+          <t>[35.534218110144835, 36.17322278395643]</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -1927,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>17.21081081081102</v>
+        <v>8.30114114114124</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.9200000000002</v>
+        <v>5.772632632632702</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.50162162162184</v>
+        <v>10.82964964964978</v>
       </c>
     </row>
     <row r="18">
@@ -1941,69 +1961,69 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-06-26</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.176154767496996e-08</v>
+        <v>0.11503878572046</v>
       </c>
       <c r="I18" t="n">
-        <v>2.176154767496996e-08</v>
+        <v>0.11503878572046</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>1.075600247259157</v>
+        <v>0.4659348888911587</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[0.7937926087884897, 1.357407885729824]</t>
+          <t>[-0.1352937015606379, 1.0671634793429554]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>9.337564566003209e-08</v>
+        <v>0.1219689500203525</v>
       </c>
       <c r="O18" t="n">
-        <v>9.337564566003209e-08</v>
+        <v>0.1219689500203525</v>
       </c>
       <c r="P18" t="n">
-        <v>1.842816111114733</v>
+        <v>2.182447749340657</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[1.553500271144502, 2.132131951084965]</t>
+          <t>[-0.8742369946926551, 5.239132493373969]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.15301101999421e-11</v>
+        <v>0.152446607721729</v>
       </c>
       <c r="S18" t="n">
-        <v>1.15301101999421e-11</v>
+        <v>0.152446607721729</v>
       </c>
       <c r="T18" t="n">
-        <v>37.06998715827531</v>
+        <v>35.51730196933239</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[36.90538680928058, 37.23458750727004]</t>
+          <t>[35.205308204660426, 35.82929573400436]</t>
         </is>
       </c>
       <c r="V18" t="n">
@@ -2013,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>16.87615615615636</v>
+        <v>15.5527127127129</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.77657657657677</v>
+        <v>3.959739739739788</v>
       </c>
       <c r="Z18" t="n">
-        <v>17.97573573573596</v>
+        <v>27.14568568568601</v>
       </c>
     </row>
     <row r="19">
@@ -2031,65 +2051,65 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.478455005088364e-07</v>
+        <v>0.02844816921315507</v>
       </c>
       <c r="I19" t="n">
-        <v>1.478455005088364e-07</v>
+        <v>0.02844816921315507</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>1.151656772805541</v>
+        <v>0.5661716633886549</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[0.8280959269318622, 1.4752176186792205]</t>
+          <t>[0.07744917568771825, 1.0548941510895915]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.795929692211985e-07</v>
+        <v>0.02525014854483931</v>
       </c>
       <c r="O19" t="n">
-        <v>2.795929692211985e-07</v>
+        <v>0.02525014854483931</v>
       </c>
       <c r="P19" t="n">
-        <v>1.717026615475503</v>
+        <v>3.000079470995658</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1.3899739268135036, 2.0440793041375027]</t>
+          <t>[1.7925003128590409, 4.2076586291322755]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.073859027897697e-10</v>
+        <v>4.04913243849947e-05</v>
       </c>
       <c r="S19" t="n">
-        <v>4.073859027897697e-10</v>
+        <v>4.04913243849947e-05</v>
       </c>
       <c r="T19" t="n">
-        <v>36.78040555657098</v>
+        <v>36.63834484911607</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[36.58258823818333, 36.97822287495864]</t>
+          <t>[36.35160359000866, 36.925086108223475]</t>
         </is>
       </c>
       <c r="V19" t="n">
@@ -2099,13 +2119,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>17.35423423423445</v>
+        <v>12.45171171171186</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.11123123123143</v>
+        <v>7.871771771771864</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.59723723723746</v>
+        <v>17.03165165165186</v>
       </c>
     </row>
     <row r="20">
@@ -2117,65 +2137,65 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.849799098925132e-07</v>
+        <v>0.01614617761592196</v>
       </c>
       <c r="I20" t="n">
-        <v>2.849799098925132e-07</v>
+        <v>0.01614617761592196</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.115977063891858</v>
+        <v>0.6021257749738069</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[0.7516151922996279, 1.4803389354840881]</t>
+          <t>[0.11431618352025197, 1.0899353664273619]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.581171498095003e-06</v>
+        <v>0.01796744362052305</v>
       </c>
       <c r="O20" t="n">
-        <v>2.581171498095003e-06</v>
+        <v>0.01796744362052305</v>
       </c>
       <c r="P20" t="n">
-        <v>1.968605606753964</v>
+        <v>2.949763672739966</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[1.6415529180919624, 2.295658295415965]</t>
+          <t>[1.8805529598065025, 4.018974385673429]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.328581854589174e-11</v>
+        <v>1.075665484684407e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>3.328581854589174e-11</v>
+        <v>1.075665484684407e-05</v>
       </c>
       <c r="T20" t="n">
-        <v>36.90472552043198</v>
+        <v>36.62477869296766</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[36.70525211149858, 37.10419892936538]</t>
+          <t>[36.345504195870106, 36.90405319006521]</t>
         </is>
       </c>
       <c r="V20" t="n">
@@ -2185,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>16.39807807807829</v>
+        <v>12.6425425425427</v>
       </c>
       <c r="Y20" t="n">
-        <v>15.15507507507526</v>
+        <v>8.587387387387491</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.64108108108131</v>
+        <v>16.6976976976979</v>
       </c>
     </row>
     <row r="21">
@@ -2199,69 +2219,69 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.432439366595318e-07</v>
+        <v>0.09186378874078904</v>
       </c>
       <c r="I21" t="n">
-        <v>2.432439366595318e-07</v>
+        <v>0.09186378874078904</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.059965951999185</v>
+        <v>0.5273888810000642</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[0.7290635057570505, 1.3908683982413201]</t>
+          <t>[-0.12009351810642599, 1.1748712801065544]</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>1.357210511310214e-06</v>
+        <v>0.1050676452519992</v>
       </c>
       <c r="O21" t="n">
-        <v>1.357210511310214e-06</v>
+        <v>0.1050676452519992</v>
       </c>
       <c r="P21" t="n">
-        <v>1.855395060678656</v>
+        <v>-2.553526761476389</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[1.50318447288881, 2.207605648468503]</t>
+          <t>[-5.522158858562239, 0.4151053356094616]</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.83234333156679e-10</v>
+        <v>0.08808012163995249</v>
       </c>
       <c r="S21" t="n">
-        <v>3.83234333156679e-10</v>
+        <v>0.08808012163995249</v>
       </c>
       <c r="T21" t="n">
-        <v>36.88188614043111</v>
+        <v>36.60374400643283</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>[36.694340195543845, 37.06943208531837]</t>
+          <t>[36.26812039403658, 36.939367618829074]</t>
         </is>
       </c>
       <c r="V21" t="n">
@@ -2271,13 +2291,13 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>16.82834834834856</v>
+        <v>9.684664664664783</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.48972972972992</v>
+        <v>-1.574354354354369</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.16696696696719</v>
+        <v>20.94368368368394</v>
       </c>
     </row>
     <row r="22">
@@ -2289,65 +2309,65 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1.004277772054252e-10</v>
+        <v>0.0007282706744428102</v>
       </c>
       <c r="I22" t="n">
-        <v>1.004277772054252e-10</v>
+        <v>0.0007282706744428102</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>1.570168586707833</v>
+        <v>0.7475774756799858</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[1.2521634633840186, 1.8881737100316478]</t>
+          <t>[0.2853830355091773, 1.2097719158507942]</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1.216370559831148e-09</v>
+        <v>0.002937981782988652</v>
       </c>
       <c r="O22" t="n">
-        <v>1.216370559831148e-09</v>
+        <v>0.002937981782988652</v>
       </c>
       <c r="P22" t="n">
-        <v>1.842816111114733</v>
+        <v>-2.578684660604235</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1.628973968528041, 2.0566582537014257]</t>
+          <t>[-3.1950531892364675, -1.9623161319720022]</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.33066907387547e-14</v>
+        <v>2.090133932597382e-08</v>
       </c>
       <c r="S22" t="n">
-        <v>3.33066907387547e-14</v>
+        <v>2.090133932597382e-08</v>
       </c>
       <c r="T22" t="n">
-        <v>37.03583725157281</v>
+        <v>36.56894209909009</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>[36.85767155944741, 37.21400294369822]</t>
+          <t>[36.32729818280785, 36.81058601537234]</t>
         </is>
       </c>
       <c r="V22" t="n">
@@ -2357,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>16.87615615615636</v>
+        <v>9.780080080080197</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.06342342342362</v>
+        <v>7.442402402402487</v>
       </c>
       <c r="Z22" t="n">
-        <v>17.6888888888891</v>
+        <v>12.11775775775791</v>
       </c>
     </row>
     <row r="23">
@@ -2375,65 +2395,65 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>0.000802599284365435</v>
       </c>
       <c r="I23" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>0.000802599284365435</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>1.25834589184629</v>
+        <v>0.9285534519008962</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[1.1193863484038857, 1.3973054352886933]</t>
+          <t>[0.36123313434250903, 1.4958737694592834]</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1.243449787580175e-14</v>
+        <v>0.002674230861584581</v>
       </c>
       <c r="O23" t="n">
-        <v>1.243449787580175e-14</v>
+        <v>0.002674230861584581</v>
       </c>
       <c r="P23" t="n">
-        <v>1.842816111114733</v>
+        <v>-2.540947811912466</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[1.7170266154755032, 1.9686056067539637]</t>
+          <t>[-3.1321584414168524, -1.9497371824080791]</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.332185051161616e-08</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.332185051161616e-08</v>
       </c>
       <c r="T23" t="n">
-        <v>37.10282425907992</v>
+        <v>36.94429897180156</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>[37.02034139648873, 37.185307121671116]</t>
+          <t>[36.641624398040676, 37.24697354556244]</t>
         </is>
       </c>
       <c r="V23" t="n">
@@ -2443,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>16.87615615615636</v>
+        <v>9.636956956957075</v>
       </c>
       <c r="Y23" t="n">
-        <v>16.39807807807828</v>
+        <v>7.394694694694781</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.35423423423444</v>
+        <v>11.87921921921937</v>
       </c>
     </row>
     <row r="24">
@@ -2461,65 +2481,65 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1.753523992675809e-10</v>
+        <v>7.987904386286271e-05</v>
       </c>
       <c r="I24" t="n">
-        <v>1.753523992675809e-10</v>
+        <v>7.987904386286271e-05</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>1.118407279491688</v>
+        <v>0.8370740882933028</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[0.9001314051504998, 1.336683153832876]</t>
+          <t>[0.42038102492097806, 1.2537671516656275]</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>6.300868715669594e-10</v>
+        <v>0.0004249006515408826</v>
       </c>
       <c r="O24" t="n">
-        <v>6.300868715669594e-10</v>
+        <v>0.0004249006515408826</v>
       </c>
       <c r="P24" t="n">
-        <v>1.805079262422964</v>
+        <v>-2.654158357987773</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[1.591237119836272, 2.0189214050096567]</t>
+          <t>[-3.1824742396725436, -2.1258424763030024]</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.996003610813204e-14</v>
+        <v>8.951046570615517e-10</v>
       </c>
       <c r="S24" t="n">
-        <v>4.996003610813204e-14</v>
+        <v>8.951046570615517e-10</v>
       </c>
       <c r="T24" t="n">
-        <v>37.07900376611785</v>
+        <v>36.49149316845681</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>[36.94840982165329, 37.20959771058241]</t>
+          <t>[36.2687222759319, 36.714264060981726]</t>
         </is>
       </c>
       <c r="V24" t="n">
@@ -2529,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>17.01957957957979</v>
+        <v>10.06632632632645</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.20684684684705</v>
+        <v>8.062602602602697</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.83231231231253</v>
+        <v>12.0700500500502</v>
       </c>
     </row>
     <row r="25">
@@ -2547,65 +2567,65 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>5.940288927419601e-09</v>
+        <v>0.001248022498382295</v>
       </c>
       <c r="I25" t="n">
-        <v>5.940288927419601e-09</v>
+        <v>0.001248022498382295</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.085998786940042</v>
+        <v>0.7761273143785914</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[0.8046174427214616, 1.3673801311586224]</t>
+          <t>[0.28023292539723244, 1.2720217033599504]</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>7.812452684774485e-08</v>
+        <v>0.003788675386045437</v>
       </c>
       <c r="O25" t="n">
-        <v>7.812452684774485e-08</v>
+        <v>0.003788675386045437</v>
       </c>
       <c r="P25" t="n">
-        <v>2.006342455445734</v>
+        <v>-2.528368862348542</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[1.7296055650394253, 2.283079345852042]</t>
+          <t>[-3.157316340544697, -1.8994213841523875]</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>9.743317264110374e-13</v>
+        <v>4.037025824743523e-08</v>
       </c>
       <c r="S25" t="n">
-        <v>9.743317264110374e-13</v>
+        <v>4.037025824743523e-08</v>
       </c>
       <c r="T25" t="n">
-        <v>37.03700646713158</v>
+        <v>36.43302530349307</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>[36.88271760467187, 37.191295329591284]</t>
+          <t>[36.16883403522392, 36.69721657176223]</t>
         </is>
       </c>
       <c r="V25" t="n">
@@ -2615,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>16.25465465465486</v>
+        <v>9.589249249249365</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.20288288288307</v>
+        <v>7.203863863863951</v>
       </c>
       <c r="Z25" t="n">
-        <v>17.30642642642664</v>
+        <v>11.97463463463478</v>
       </c>
     </row>
     <row r="26">
@@ -2633,65 +2653,65 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>7.331263085497142e-08</v>
+        <v>0.0006015310024053422</v>
       </c>
       <c r="I26" t="n">
-        <v>7.331263085497142e-08</v>
+        <v>0.0006015310024053422</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1.152644639660327</v>
+        <v>0.8699893414138486</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[0.7941965216879296, 1.5110927576327242]</t>
+          <t>[0.342441275005239, 1.3975374078224583]</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1.283027384113566e-06</v>
+        <v>0.002517233242789629</v>
       </c>
       <c r="O26" t="n">
-        <v>1.283027384113566e-06</v>
+        <v>0.002517233242789629</v>
       </c>
       <c r="P26" t="n">
-        <v>2.157289850212811</v>
+        <v>-2.440316215401081</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[1.8428161111147334, 2.4717635893108882]</t>
+          <t>[-3.0063689457776195, -1.8742634850245419]</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.819078304128197e-12</v>
+        <v>1.26500103725391e-08</v>
       </c>
       <c r="S26" t="n">
-        <v>2.819078304128197e-12</v>
+        <v>1.26500103725391e-08</v>
       </c>
       <c r="T26" t="n">
-        <v>37.008291608771</v>
+        <v>36.26899851152579</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>[36.81839591748627, 37.198187300055736]</t>
+          <t>[35.99323560789976, 36.544761415151825]</t>
         </is>
       </c>
       <c r="V26" t="n">
@@ -2701,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>15.68096096096115</v>
+        <v>9.255295295295406</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.48576576576595</v>
+        <v>7.108448448448535</v>
       </c>
       <c r="Z26" t="n">
-        <v>16.87615615615637</v>
+        <v>11.40214214214228</v>
       </c>
     </row>
     <row r="27">
@@ -2719,65 +2739,65 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-07-03</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>8.128941964002934e-11</v>
+        <v>0.006637479479245312</v>
       </c>
       <c r="I27" t="n">
-        <v>8.128941964002934e-11</v>
+        <v>0.006637479479245312</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>1.244388992813111</v>
+        <v>0.7742358039121839</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[0.9896254679994101, 1.4991525176268112]</t>
+          <t>[0.21362840307985564, 1.3348432047445122]</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1.471681443376838e-09</v>
+        <v>0.009122914014640715</v>
       </c>
       <c r="O27" t="n">
-        <v>1.471681443376838e-09</v>
+        <v>0.009122914014640715</v>
       </c>
       <c r="P27" t="n">
-        <v>2.044079304137503</v>
+        <v>-2.868000500574466</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[1.8302371615508104, 2.257921446724195]</t>
+          <t>[-3.8240006674326215, -1.912000333716311]</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>3.453195422942201e-06</v>
       </c>
       <c r="S27" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>3.453195422942201e-06</v>
       </c>
       <c r="T27" t="n">
-        <v>37.00094107896834</v>
+        <v>36.69570645452859</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>[36.8614134802033, 37.140468677733374]</t>
+          <t>[36.37723443598546, 37.01417847307172]</t>
         </is>
       </c>
       <c r="V27" t="n">
@@ -2787,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>16.11123123123143</v>
+        <v>10.87735735735749</v>
       </c>
       <c r="Y27" t="n">
-        <v>15.29849849849869</v>
+        <v>7.25157157157166</v>
       </c>
       <c r="Z27" t="n">
-        <v>16.92396396396417</v>
+        <v>14.50314314314332</v>
       </c>
     </row>
     <row r="28">
@@ -2805,65 +2825,65 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1.304780550270834e-08</v>
+        <v>0.02297539325742726</v>
       </c>
       <c r="I28" t="n">
-        <v>1.304780550270834e-08</v>
+        <v>0.02297539325742726</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.250887327471066</v>
+        <v>0.4741057644445945</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[0.8867727454976482, 1.6150019094444836]</t>
+          <t>[0.042490477013242156, 0.9057210518759469]</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.80488541843016e-07</v>
+        <v>0.0328609850510273</v>
       </c>
       <c r="O28" t="n">
-        <v>4.80488541843016e-07</v>
+        <v>0.0328609850510273</v>
       </c>
       <c r="P28" t="n">
-        <v>2.220184598032426</v>
+        <v>-2.603842559732081</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[1.9308687580621946, 2.5095004380026573]</t>
+          <t>[-3.7485269700490833, -1.4591581494150785]</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.239630785856207e-13</v>
+        <v>0.0001135105180669616</v>
       </c>
       <c r="S28" t="n">
-        <v>3.239630785856207e-13</v>
+        <v>0.0001135105180669616</v>
       </c>
       <c r="T28" t="n">
-        <v>36.87582233143432</v>
+        <v>36.20390336289647</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>[36.68987250685403, 37.06177215601461]</t>
+          <t>[35.97202487493229, 36.43578185086065]</t>
         </is>
       </c>
       <c r="V28" t="n">
@@ -2873,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>15.44192192192211</v>
+        <v>9.875495495495613</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.34234234234252</v>
+        <v>5.534094094094157</v>
       </c>
       <c r="Z28" t="n">
-        <v>16.54150150150171</v>
+        <v>14.21689689689707</v>
       </c>
     </row>
     <row r="29">
@@ -2887,69 +2907,69 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-07-07</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.52211576676109e-13</v>
+        <v>0.07020444252002167</v>
       </c>
       <c r="I29" t="n">
-        <v>1.52211576676109e-13</v>
+        <v>0.07020444252002167</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.615610809358621</v>
+        <v>0.5735190736564384</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[1.365912371459821, 1.8653092472574215]</t>
+          <t>[-0.08398228187627055, 1.2310204291891473]</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>8.574918552994859e-12</v>
+        <v>0.08399543433112733</v>
       </c>
       <c r="O29" t="n">
-        <v>8.574918552994859e-12</v>
+        <v>0.08399543433112733</v>
       </c>
       <c r="P29" t="n">
-        <v>2.119553001521041</v>
+        <v>-2.377421467581465</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>[1.9686056067539637, 2.270500396288118]</t>
+          <t>[-5.515869383780277, 0.761026448617347]</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.1301242956549418</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>0.1301242956549418</v>
       </c>
       <c r="T29" t="n">
-        <v>37.06767983909484</v>
+        <v>36.36585724680077</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>[36.936750642223565, 37.19860903596611]</t>
+          <t>[36.022825581653066, 36.70888891194848]</t>
         </is>
       </c>
       <c r="V29" t="n">
@@ -2959,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>15.82438438438458</v>
+        <v>9.016756756756864</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.25069069069088</v>
+        <v>-2.88631631631635</v>
       </c>
       <c r="Z29" t="n">
-        <v>16.39807807807828</v>
+        <v>20.91982982983008</v>
       </c>
     </row>
     <row r="30">
@@ -2977,65 +2997,65 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1.019421658199349e-09</v>
+        <v>0.01666266303736896</v>
       </c>
       <c r="I30" t="n">
-        <v>1.019421658199349e-09</v>
+        <v>0.01666266303736896</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.080578087965929</v>
+        <v>0.7228921047846448</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[0.8137204571636474, 1.3474357187682102]</t>
+          <t>[0.05889628242374911, 1.3868879271455405]</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.584726138150529e-08</v>
+        <v>0.0342793328350679</v>
       </c>
       <c r="O30" t="n">
-        <v>3.584726138150529e-08</v>
+        <v>0.0342793328350679</v>
       </c>
       <c r="P30" t="n">
-        <v>2.207605648468503</v>
+        <v>-2.31452671976185</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[1.9560266571900407, 2.459184639746965]</t>
+          <t>[-3.0818426431611585, -1.5472107963625406]</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.331468351712829e-14</v>
+        <v>3.199998011016447e-06</v>
       </c>
       <c r="S30" t="n">
-        <v>2.331468351712829e-14</v>
+        <v>3.199998011016447e-06</v>
       </c>
       <c r="T30" t="n">
-        <v>37.06283074023591</v>
+        <v>36.40720272626059</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>[36.92361469700284, 37.20204678346898]</t>
+          <t>[36.071274214340704, 36.74313123818048]</t>
         </is>
       </c>
       <c r="V30" t="n">
@@ -3045,13 +3065,13 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>15.48972972972992</v>
+        <v>8.778218218218324</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.53357357357375</v>
+        <v>5.868048048048118</v>
       </c>
       <c r="Z30" t="n">
-        <v>16.44588588588609</v>
+        <v>11.68838838838853</v>
       </c>
     </row>
     <row r="31">
@@ -3063,65 +3083,65 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
+          <t>2022-07-09</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>23.88000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>3.549136728953073e-08</v>
+        <v>0.006831900115040868</v>
       </c>
       <c r="I31" t="n">
-        <v>3.549136728953073e-08</v>
+        <v>0.006831900115040868</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.203768618014411</v>
+        <v>0.7159299009461506</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[0.8310976715178917, 1.576439564510931]</t>
+          <t>[0.15936114836115323, 1.272498653531148]</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1.201729447286581e-06</v>
+        <v>0.01417095829665516</v>
       </c>
       <c r="O31" t="n">
-        <v>1.201729447286581e-06</v>
+        <v>0.01417095829665516</v>
       </c>
       <c r="P31" t="n">
-        <v>2.283079345852042</v>
+        <v>-2.540947811912466</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>[1.9686056067539646, 2.5975530849501194]</t>
+          <t>[-3.2831058361839287, -1.7987897876410028]</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>9.487965968446588e-13</v>
+        <v>5.059133525442405e-07</v>
       </c>
       <c r="S31" t="n">
-        <v>9.487965968446588e-13</v>
+        <v>5.059133525442405e-07</v>
       </c>
       <c r="T31" t="n">
-        <v>37.06659064726567</v>
+        <v>36.19958437059665</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>[36.876667222804016, 37.256514071727324]</t>
+          <t>[35.90444507171714, 36.494723669476166]</t>
         </is>
       </c>
       <c r="V31" t="n">
@@ -3131,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>15.20288288288307</v>
+        <v>9.628868868868985</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.00768768768786</v>
+        <v>6.816476476476558</v>
       </c>
       <c r="Z31" t="n">
-        <v>16.39807807807828</v>
+        <v>12.44126126126141</v>
       </c>
     </row>
     <row r="32">
@@ -3145,69 +3165,69 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-07-10</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>23.88000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.247757535656092e-12</v>
+        <v>0.04726523166937568</v>
       </c>
       <c r="I32" t="n">
-        <v>2.247757535656092e-12</v>
+        <v>0.04726523166937568</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.282002850619506</v>
+        <v>0.5302855117728136</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[1.055460436667282, 1.5085452645717297]</t>
+          <t>[-0.019965152953876242, 1.0805361764995034]</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>1.041984276639596e-10</v>
+        <v>0.0581201619491909</v>
       </c>
       <c r="O32" t="n">
-        <v>1.041984276639596e-10</v>
+        <v>0.0581201619491909</v>
       </c>
       <c r="P32" t="n">
-        <v>2.471763589310888</v>
+        <v>-2.591263610168157</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>[2.295658295415965, 2.6478688832058115]</t>
+          <t>[-4.390053397809161, -0.7924738225271541]</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.006887492073697654</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>0.006887492073697654</v>
       </c>
       <c r="T32" t="n">
-        <v>36.94195742268371</v>
+        <v>36.38991283114805</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>[36.82264979227926, 37.06126505308816]</t>
+          <t>[36.0966541132526, 36.68317154904351]</t>
         </is>
       </c>
       <c r="V32" t="n">
@@ -3217,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>14.48576576576595</v>
+        <v>9.819539539539656</v>
       </c>
       <c r="Y32" t="n">
-        <v>13.81645645645663</v>
+        <v>3.003063063063096</v>
       </c>
       <c r="Z32" t="n">
-        <v>15.15507507507526</v>
+        <v>16.63601601601622</v>
       </c>
     </row>
     <row r="33">
@@ -3231,69 +3251,69 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2022-07-09</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>23.88000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1.813438288422731e-11</v>
+        <v>0.3007381975200892</v>
       </c>
       <c r="I33" t="n">
-        <v>1.813438288422731e-11</v>
+        <v>0.3007381975200892</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>1.330448365363182</v>
+        <v>0.3852012549557173</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[1.0679529569784592, 1.5929437737479049]</t>
+          <t>[-0.2723334318123669, 1.0427359417238016]</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>7.647849020742115e-10</v>
+        <v>0.2366235483612882</v>
       </c>
       <c r="O33" t="n">
-        <v>7.647849020742115e-10</v>
+        <v>0.2366235483612882</v>
       </c>
       <c r="P33" t="n">
-        <v>2.597553084950119</v>
+        <v>-2.691895206679543</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[2.396289891927349, 2.7988162779728896]</t>
+          <t>[-5.8051852237505095, 0.42139481039142357]</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.08654932153200989</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>0.08654932153200989</v>
       </c>
       <c r="T33" t="n">
-        <v>36.89652818761438</v>
+        <v>36.38940247960993</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>[36.758450180879855, 37.0346061943489]</t>
+          <t>[36.0334052376251, 36.74539972159477]</t>
         </is>
       </c>
       <c r="V33" t="n">
@@ -3303,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>14.00768768768786</v>
+        <v>10.200880880881</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.24276276276292</v>
+        <v>-1.596866866866886</v>
       </c>
       <c r="Z33" t="n">
-        <v>14.7726126126128</v>
+        <v>21.99862862862889</v>
       </c>
     </row>
     <row r="34">
@@ -3317,69 +3337,69 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-07-10</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>23.88000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>3.843036999739979e-12</v>
+        <v>0.2375648310985845</v>
       </c>
       <c r="I34" t="n">
-        <v>3.843036999739979e-12</v>
+        <v>0.2375648310985845</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>1.41636991330698</v>
+        <v>0.4676497697697641</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[1.1624494344433494, 1.6702903921706103]</t>
+          <t>[-0.2947477318468472, 1.2300472713863755]</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1.356930123819211e-10</v>
+        <v>0.216019837198832</v>
       </c>
       <c r="O34" t="n">
-        <v>1.356930123819211e-10</v>
+        <v>0.216019837198832</v>
       </c>
       <c r="P34" t="n">
-        <v>2.647868883205811</v>
+        <v>-2.452895164965004</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>[2.4591846397469648, 2.8365531266646573]</t>
+          <t>[-5.559895707254009, 0.6541053773240018]</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.1155234941711869</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.1155234941711869</v>
       </c>
       <c r="T34" t="n">
-        <v>36.88997340664974</v>
+        <v>36.5281155663925</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>[36.75422914479934, 37.02571766850015]</t>
+          <t>[36.13596891629418, 36.92026221649082]</t>
         </is>
       </c>
       <c r="V34" t="n">
@@ -3389,13 +3409,13 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>13.81645645645663</v>
+        <v>9.295195195195305</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.0993393393395</v>
+        <v>-2.478718718718751</v>
       </c>
       <c r="Z34" t="n">
-        <v>14.53357357357375</v>
+        <v>21.06910910910936</v>
       </c>
     </row>
     <row r="35">
@@ -3403,69 +3423,69 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>23.88000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1.321387443908861e-12</v>
+        <v>0.4443755497777914</v>
       </c>
       <c r="I35" t="n">
-        <v>1.321387443908861e-12</v>
+        <v>0.4443755497777914</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>1.398796355246414</v>
+        <v>0.3005820685955882</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[1.1625329657778174, 1.6350597447150115]</t>
+          <t>[-0.30683124521415905, 0.9079953824053355]</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.526778951685628e-11</v>
+        <v>0.3151364212396621</v>
       </c>
       <c r="O35" t="n">
-        <v>4.526778951685628e-11</v>
+        <v>0.3151364212396621</v>
       </c>
       <c r="P35" t="n">
-        <v>2.72334258058935</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[2.547237286694427, 2.8994478744842733]</t>
+          <t>[-6.207711609796048, 0.06918422260157708]</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.05480255822263702</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>0.05480255822263702</v>
       </c>
       <c r="T35" t="n">
-        <v>36.83565902656709</v>
+        <v>36.2865520878119</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>[36.708766844531034, 36.96255120860314]</t>
+          <t>[35.94487781017987, 36.62822636544393]</t>
         </is>
       </c>
       <c r="V35" t="n">
@@ -3475,13 +3495,13 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>13.52960960960978</v>
+        <v>11.63091091091105</v>
       </c>
       <c r="Y35" t="n">
-        <v>12.86030030030046</v>
+        <v>-0.2621721721721748</v>
       </c>
       <c r="Z35" t="n">
-        <v>14.19891891891909</v>
+        <v>23.52399399399427</v>
       </c>
     </row>
     <row r="36">
@@ -3489,69 +3509,69 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>23.88000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.916866830877552e-13</v>
+        <v>0.09142990936412843</v>
       </c>
       <c r="I36" t="n">
-        <v>3.916866830877552e-13</v>
+        <v>0.09142990936412843</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.357789179961721</v>
+        <v>0.5900335828959911</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[1.1330517464473857, 1.5825266134760554]</t>
+          <t>[-0.08518765869439804, 1.2652548244863802]</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.10562686678395e-11</v>
+        <v>0.08347875210853051</v>
       </c>
       <c r="O36" t="n">
-        <v>3.10562686678395e-11</v>
+        <v>0.08347875210853051</v>
       </c>
       <c r="P36" t="n">
-        <v>2.35855304323558</v>
+        <v>-2.591263610168157</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[2.195026698904579, 2.5220793875665812]</t>
+          <t>[-4.842895582110392, -0.33963163822592257]</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.02611824479014446</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>0.02611824479014446</v>
       </c>
       <c r="T36" t="n">
-        <v>36.93724361277769</v>
+        <v>36.43963875294599</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>[36.82171164048957, 37.0527755850658]</t>
+          <t>[36.064413638702554, 36.81486386718942]</t>
         </is>
       </c>
       <c r="V36" t="n">
@@ -3561,13 +3581,13 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>14.91603603603622</v>
+        <v>9.819539539539656</v>
       </c>
       <c r="Y36" t="n">
-        <v>14.29453453453471</v>
+        <v>1.287027027027039</v>
       </c>
       <c r="Z36" t="n">
-        <v>15.53753753753773</v>
+        <v>18.35205205205227</v>
       </c>
     </row>
     <row r="37">
@@ -3575,69 +3595,69 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>23.88000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>4.278799536905353e-13</v>
+        <v>0.1206734600969881</v>
       </c>
       <c r="I37" t="n">
-        <v>4.278799536905353e-13</v>
+        <v>0.1206734600969881</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.641812631634156</v>
+        <v>0.5309543437901922</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[1.3646646274370404, 1.9189606358312723]</t>
+          <t>[-0.1582444520053521, 1.2201531395857366]</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.477973547523106e-11</v>
+        <v>0.1240650578283002</v>
       </c>
       <c r="O37" t="n">
-        <v>4.477973547523106e-11</v>
+        <v>0.1240650578283002</v>
       </c>
       <c r="P37" t="n">
-        <v>2.408868841491273</v>
+        <v>-1.94973718240808</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>[2.245342497160273, 2.5723951858222733]</t>
+          <t>[-4.245395477824044, 0.34592111300788453]</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.09188901722029441</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.09188901722029441</v>
       </c>
       <c r="T37" t="n">
-        <v>37.06151907813268</v>
+        <v>36.35750586529623</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>[36.9211428967977, 37.201895259467655]</t>
+          <t>[35.99771339740302, 36.71729833318945]</t>
         </is>
       </c>
       <c r="V37" t="n">
@@ -3647,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>14.72480480480498</v>
+        <v>7.388488488488576</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.10330330330348</v>
+        <v>-1.310860860860872</v>
       </c>
       <c r="Z37" t="n">
-        <v>15.34630630630649</v>
+        <v>16.08783783783802</v>
       </c>
     </row>
     <row r="38">
@@ -3661,69 +3681,69 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>2.348373340232968e-08</v>
+        <v>0.09791784461701891</v>
       </c>
       <c r="I38" t="n">
-        <v>2.348373340232968e-08</v>
+        <v>0.09791784461701891</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>1.01231746397935</v>
+        <v>0.4960391634981036</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[0.7366260759507597, 1.2880088520079411]</t>
+          <t>[-0.09654629172469242, 1.0886246187208997]</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>1.7225265236398e-07</v>
+        <v>0.09635312151930386</v>
       </c>
       <c r="O38" t="n">
-        <v>1.7225265236398e-07</v>
+        <v>0.09635312151930386</v>
       </c>
       <c r="P38" t="n">
-        <v>2.861711025792504</v>
+        <v>-1.962316131972003</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>[2.572395185822273, 3.1510268657627347]</t>
+          <t>[-3.899474364816159, -0.02515789912784605]</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>0.0473509557414471</v>
       </c>
       <c r="S38" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>0.0473509557414471</v>
       </c>
       <c r="T38" t="n">
-        <v>36.77402162883722</v>
+        <v>36.42828650508374</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>[36.61729894716099, 36.93074431051345]</t>
+          <t>[36.10922336745376, 36.74734964271372]</t>
         </is>
       </c>
       <c r="V38" t="n">
@@ -3733,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>12.90570570570585</v>
+        <v>7.436156156156244</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.81441441441455</v>
+        <v>0.09533533533533678</v>
       </c>
       <c r="Z38" t="n">
-        <v>13.99699699699715</v>
+        <v>14.77697697697715</v>
       </c>
     </row>
     <row r="39">
@@ -3751,65 +3771,65 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-07-17</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1.531187177050697e-09</v>
+        <v>0.0307161493311594</v>
       </c>
       <c r="I39" t="n">
-        <v>1.531187177050697e-09</v>
+        <v>0.0307161493311594</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.7993490364742755</v>
+        <v>0.7002593389688911</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[0.63471041126666, 0.963987661681891]</t>
+          <t>[0.08248935884016717, 1.3180293190976151]</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>1.635991564441497e-09</v>
+        <v>0.02818985791954653</v>
       </c>
       <c r="O39" t="n">
-        <v>1.635991564441497e-09</v>
+        <v>0.02818985791954653</v>
       </c>
       <c r="P39" t="n">
-        <v>3.075553168379197</v>
+        <v>-1.673000292001772</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[2.8491320762285812, 3.301974260529812]</t>
+          <t>[-2.8805794501383897, -0.4654211338651546]</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.008938290554486805</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>0.008938290554486805</v>
       </c>
       <c r="T39" t="n">
-        <v>36.46740388526349</v>
+        <v>36.370156255353</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>[36.36127926875628, 36.57352850177071]</t>
+          <t>[36.01376208361461, 36.7265504270914]</t>
         </is>
       </c>
       <c r="V39" t="n">
@@ -3819,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>12.09909909909924</v>
+        <v>6.339799799799877</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.24504504504517</v>
+        <v>1.763703703703725</v>
       </c>
       <c r="Z39" t="n">
-        <v>12.9531531531533</v>
+        <v>10.91589589589603</v>
       </c>
     </row>
     <row r="40">
@@ -3833,69 +3853,69 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1.944811390819368e-07</v>
+        <v>0.1157669811331578</v>
       </c>
       <c r="I40" t="n">
-        <v>1.944811390819368e-07</v>
+        <v>0.1157669811331578</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.016397210245444</v>
+        <v>0.5150984889813266</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[0.728658391918259, 1.3041360285726284]</t>
+          <t>[-0.10687672024095463, 1.1370736982036078]</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.143164735153192e-07</v>
+        <v>0.09971915023118094</v>
       </c>
       <c r="O40" t="n">
-        <v>3.143164735153192e-07</v>
+        <v>0.09971915023118094</v>
       </c>
       <c r="P40" t="n">
-        <v>3.050395269251351</v>
+        <v>-1.723316090257464</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>[2.7485004797171966, 3.3522900587855053]</t>
+          <t>[-3.3585795335674664, -0.08805264694746207]</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>0.03982246233152154</v>
       </c>
       <c r="S40" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>0.03982246233152154</v>
       </c>
       <c r="T40" t="n">
-        <v>36.3916939480464</v>
+        <v>36.31783524145317</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>[36.21266374338404, 36.57072415270876]</t>
+          <t>[35.973001315082016, 36.66266916782432]</t>
         </is>
       </c>
       <c r="V40" t="n">
@@ -3905,13 +3925,13 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>12.19399399399413</v>
+        <v>6.530470470470551</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.05525525525538</v>
+        <v>0.3336736736736814</v>
       </c>
       <c r="Z40" t="n">
-        <v>13.33273273273288</v>
+        <v>12.72726726726742</v>
       </c>
     </row>
     <row r="41">
@@ -3919,69 +3939,69 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-07-17</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>7.28960001061818e-06</v>
+        <v>0.2114610745116461</v>
       </c>
       <c r="I41" t="n">
-        <v>7.28960001061818e-06</v>
+        <v>0.2114610745116461</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.8928451023857917</v>
+        <v>0.3924019264424885</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[0.5493725582737419, 1.2363176464978416]</t>
+          <t>[-0.20297577750906726, 0.9877796303940443]</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.313683487686902e-05</v>
+        <v>0.1849629489483602</v>
       </c>
       <c r="O41" t="n">
-        <v>2.313683487686902e-05</v>
+        <v>0.1849629489483602</v>
       </c>
       <c r="P41" t="n">
-        <v>2.849132076228581</v>
+        <v>-2.490632013656773</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>[2.4214477910551966, 3.276816361401966]</t>
+          <t>[-5.559895707254009, 0.5786316799404636]</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.93138863078002e-12</v>
+        <v>0.1062949351816034</v>
       </c>
       <c r="S41" t="n">
-        <v>4.93138863078002e-12</v>
+        <v>0.1062949351816034</v>
       </c>
       <c r="T41" t="n">
-        <v>36.55176391393896</v>
+        <v>36.4822464255497</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>[36.35260786822593, 36.750919959651995]</t>
+          <t>[36.16662481504832, 36.797868036051085]</t>
         </is>
       </c>
       <c r="V41" t="n">
@@ -3991,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>12.9531531531533</v>
+        <v>9.438198198198311</v>
       </c>
       <c r="Y41" t="n">
-        <v>11.33993993994007</v>
+        <v>-2.192712712712742</v>
       </c>
       <c r="Z41" t="n">
-        <v>14.56636636636653</v>
+        <v>21.06910910910936</v>
       </c>
     </row>
     <row r="42">
@@ -4005,69 +4025,69 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0003123052114717417</v>
+        <v>0.06650807854511442</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0003123052114717417</v>
+        <v>0.06650807854511442</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.6232231521519154</v>
+        <v>0.5946340032457833</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[0.3075116018303987, 0.938934702473432]</t>
+          <t>[-0.01818499398262219, 1.2074530004741888]</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.000505245899136364</v>
+        <v>0.05655862867572869</v>
       </c>
       <c r="O42" t="n">
-        <v>0.000505245899136364</v>
+        <v>0.05655862867572869</v>
       </c>
       <c r="P42" t="n">
-        <v>2.987500521431735</v>
+        <v>-1.710737140693541</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>[2.3837109423634266, 3.591290100500044]</t>
+          <t>[-3.16989529010862, -0.2515789912784623]</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.172154595607822e-09</v>
+        <v>0.02373369950435422</v>
       </c>
       <c r="S42" t="n">
-        <v>1.172154595607822e-09</v>
+        <v>0.02373369950435422</v>
       </c>
       <c r="T42" t="n">
-        <v>36.53590869625862</v>
+        <v>36.3524471357883</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>[36.34911759830974, 36.72269979420749]</t>
+          <t>[36.00260402286544, 36.70229024871115]</t>
         </is>
       </c>
       <c r="V42" t="n">
@@ -4077,13 +4097,13 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>12.43123123123137</v>
+        <v>6.48280280280288</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.15375375375386</v>
+        <v>0.9533533533533651</v>
       </c>
       <c r="Z42" t="n">
-        <v>14.70870870870887</v>
+        <v>12.0122522522524</v>
       </c>
     </row>
     <row r="43">
@@ -4091,69 +4111,69 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>3.726620972699379e-06</v>
+        <v>0.9936793106483522</v>
       </c>
       <c r="I43" t="n">
-        <v>3.726620972699379e-06</v>
+        <v>0.9936793106483522</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.7328457458889268</v>
+        <v>0.02363483662623267</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[0.4703826136528946, 0.995308878124959]</t>
+          <t>[-0.5783042849588114, 0.6255739582112767]</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>9.176423270140788e-06</v>
+        <v>0.9356943308571359</v>
       </c>
       <c r="O43" t="n">
-        <v>9.176423270140788e-06</v>
+        <v>0.9356943308571359</v>
       </c>
       <c r="P43" t="n">
-        <v>-2.930895248394081</v>
+        <v>-2.830263651882697</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[-3.358579533567466, -2.5032109632206967]</t>
+          <t>[-5.968711568081509, 0.30818426431611545]</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.87525558917423e-12</v>
+        <v>0.07471081774436916</v>
       </c>
       <c r="S43" t="n">
-        <v>2.87525558917423e-12</v>
+        <v>0.07471081774436916</v>
       </c>
       <c r="T43" t="n">
-        <v>36.66106054601724</v>
+        <v>36.65705878438384</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>[36.50471733305106, 36.81740375898342]</t>
+          <t>[36.347562852061856, 36.966554716705815]</t>
         </is>
       </c>
       <c r="V43" t="n">
@@ -4163,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>11.05525525525538</v>
+        <v>10.72522522522535</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.442042042042152</v>
+        <v>-1.16785785785787</v>
       </c>
       <c r="Z43" t="n">
-        <v>12.66846846846861</v>
+        <v>22.61830830830858</v>
       </c>
     </row>
     <row r="44">
@@ -4177,69 +4197,69 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00263656821006808</v>
+        <v>0.1991407485831973</v>
       </c>
       <c r="I44" t="n">
-        <v>0.00263656821006808</v>
+        <v>0.1991407485831973</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.68552350334976</v>
+        <v>0.3371667912145853</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[0.28330007090929854, 1.0877469357902214]</t>
+          <t>[-0.16664637162588036, 0.8409799540550509]</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.001920355945449703</v>
+        <v>0.1785683480861395</v>
       </c>
       <c r="O44" t="n">
-        <v>0.001920355945449703</v>
+        <v>0.1785683480861395</v>
       </c>
       <c r="P44" t="n">
-        <v>-3.031526844905466</v>
+        <v>-2.301947770197927</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[-3.8240006674326206, -2.2390530223783105]</t>
+          <t>[-5.377500938577123, 0.77360539818127]</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>9.007370138647275e-08</v>
+        <v>0.134527400890758</v>
       </c>
       <c r="S44" t="n">
-        <v>9.007370138647275e-08</v>
+        <v>0.134527400890758</v>
       </c>
       <c r="T44" t="n">
-        <v>36.49317434709825</v>
+        <v>36.32059438634386</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>[36.23943088070704, 36.74691781348945]</t>
+          <t>[36.05504796685291, 36.5861408058348]</t>
         </is>
       </c>
       <c r="V44" t="n">
@@ -4249,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>11.43483483483496</v>
+        <v>8.723183183183286</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.44564564564574</v>
+        <v>-2.931561561561596</v>
       </c>
       <c r="Z44" t="n">
-        <v>14.42402402402418</v>
+        <v>20.37792792792817</v>
       </c>
     </row>
     <row r="45">
@@ -4263,69 +4283,69 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>2.897295195447569e-05</v>
+        <v>0.1421572065417794</v>
       </c>
       <c r="I45" t="n">
-        <v>2.897295195447569e-05</v>
+        <v>0.1421572065417794</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.7793519674764511</v>
+        <v>0.5723387082750051</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[0.47085189936786875, 1.0878520355850334]</t>
+          <t>[-0.15565818693211497, 1.3003356034821252]</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.301033533009701e-05</v>
+        <v>0.1169603226806057</v>
       </c>
       <c r="O45" t="n">
-        <v>3.301033533009701e-05</v>
+        <v>0.1169603226806057</v>
       </c>
       <c r="P45" t="n">
-        <v>3.062974218815274</v>
+        <v>-1.673000292001772</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[2.5849741353861964, 3.5409743022443516]</t>
+          <t>[-3.94350068828989, 0.5975001042863459]</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.029643037497863e-11</v>
+        <v>0.1403642027969449</v>
       </c>
       <c r="S45" t="n">
-        <v>1.029643037497863e-11</v>
+        <v>0.1403642027969449</v>
       </c>
       <c r="T45" t="n">
-        <v>36.36560010483966</v>
+        <v>36.40277243894074</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>[36.172973620844374, 36.55822658883494]</t>
+          <t>[35.99839699201493, 36.807147885866556]</t>
         </is>
       </c>
       <c r="V45" t="n">
@@ -4335,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>12.14654654654668</v>
+        <v>6.339799799799877</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.34354354354366</v>
+        <v>-2.264214214214237</v>
       </c>
       <c r="Z45" t="n">
-        <v>13.9495495495497</v>
+        <v>14.94381381381399</v>
       </c>
     </row>
     <row r="46">
@@ -4349,69 +4369,69 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-24</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>2.464410870928191e-07</v>
+        <v>0.1343468956603154</v>
       </c>
       <c r="I46" t="n">
-        <v>2.464410870928191e-07</v>
+        <v>0.1343468956603154</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>1.000652649428119</v>
+        <v>0.4742645133320771</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[0.6863119425516544, 1.3149933563045835]</t>
+          <t>[-0.0876961088572692, 1.0362251355214234]</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>1.485795565248083e-06</v>
+        <v>0.09382490790774645</v>
       </c>
       <c r="O46" t="n">
-        <v>1.485795565248083e-06</v>
+        <v>0.09382490790774645</v>
       </c>
       <c r="P46" t="n">
-        <v>-2.817684702318773</v>
+        <v>-1.509473947670772</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[-3.1573163405446967, -2.4780530640928498]</t>
+          <t>[-3.119579491852928, 0.1006315965113842]</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>7.038813976123492e-14</v>
+        <v>0.06469851906036506</v>
       </c>
       <c r="S46" t="n">
-        <v>7.038813976123492e-14</v>
+        <v>0.06469851906036506</v>
       </c>
       <c r="T46" t="n">
-        <v>36.26816898450392</v>
+        <v>36.42016518034805</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>[36.089568622052695, 36.44676934695515]</t>
+          <t>[36.09016267283257, 36.75016768786353]</t>
         </is>
       </c>
       <c r="V46" t="n">
@@ -4421,13 +4441,13 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>10.62822822822835</v>
+        <v>5.720120120120189</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.347147147147254</v>
+        <v>-0.3813413413413445</v>
       </c>
       <c r="Z46" t="n">
-        <v>11.90930930930944</v>
+        <v>11.82158158158172</v>
       </c>
     </row>
     <row r="47">
@@ -4435,69 +4455,69 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-07-23</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>2.557912109257821e-05</v>
+        <v>0.2086039878212613</v>
       </c>
       <c r="I47" t="n">
-        <v>2.557912109257821e-05</v>
+        <v>0.2086039878212613</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.8420961426153646</v>
+        <v>0.399169095279678</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[0.4861360102715224, 1.1980562749592067]</t>
+          <t>[-0.16041079752341503, 0.9587489880827711]</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>7.245897017260639e-05</v>
+        <v>0.1528049270875158</v>
       </c>
       <c r="O47" t="n">
-        <v>7.245897017260639e-05</v>
+        <v>0.1528049270875158</v>
       </c>
       <c r="P47" t="n">
-        <v>-2.918316298830158</v>
+        <v>-1.660421342437848</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>[-3.4088953318231585, -2.427737265837157]</t>
+          <t>[-4.528421843012315, 1.2075791581366184]</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>4.144262710781277e-11</v>
+        <v>0.2419906191435801</v>
       </c>
       <c r="S47" t="n">
-        <v>4.144262710781277e-11</v>
+        <v>0.2419906191435801</v>
       </c>
       <c r="T47" t="n">
-        <v>36.43712463959447</v>
+        <v>36.29755792513859</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>[36.2311556617107, 36.64309361747824]</t>
+          <t>[35.979718953309074, 36.61539689696811]</t>
         </is>
       </c>
       <c r="V47" t="n">
@@ -4507,13 +4527,13 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>11.00780780780793</v>
+        <v>6.292132132132206</v>
       </c>
       <c r="Y47" t="n">
-        <v>9.157357357357458</v>
+        <v>-4.576096096096155</v>
       </c>
       <c r="Z47" t="n">
-        <v>12.8582582582584</v>
+        <v>17.16036036036057</v>
       </c>
     </row>
     <row r="48">
@@ -4525,65 +4545,65 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-07-24</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>5.363403832170377e-08</v>
+        <v>0.003221590507775374</v>
       </c>
       <c r="I48" t="n">
-        <v>5.363403832170377e-08</v>
+        <v>0.003221590507775374</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.105022480611058</v>
+        <v>0.8685960133799959</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[0.7711108823047645, 1.4389340789173524]</t>
+          <t>[0.30961490459152685, 1.427577122168465]</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>8.41318206434849e-07</v>
+        <v>0.003999947508226409</v>
       </c>
       <c r="O48" t="n">
-        <v>8.41318206434849e-07</v>
+        <v>0.003999947508226409</v>
       </c>
       <c r="P48" t="n">
-        <v>-2.64157940842385</v>
+        <v>-1.836526636332772</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[-2.9560531475219274, -2.3271056693257726]</t>
+          <t>[-2.6290004588599274, -1.0440528138056173]</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>5.506706202140776e-14</v>
+        <v>9.19078946808316e-05</v>
       </c>
       <c r="S48" t="n">
-        <v>5.506706202140776e-14</v>
+        <v>9.19078946808316e-05</v>
       </c>
       <c r="T48" t="n">
-        <v>36.3594024705572</v>
+        <v>36.3861220839584</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>[36.17968053880594, 36.53912440230846]</t>
+          <t>[36.06022709863398, 36.712017069282815]</t>
         </is>
       </c>
       <c r="V48" t="n">
@@ -4593,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>9.963963963964074</v>
+        <v>6.959479479479565</v>
       </c>
       <c r="Y48" t="n">
-        <v>8.777777777777874</v>
+        <v>3.956416416416467</v>
       </c>
       <c r="Z48" t="n">
-        <v>11.15015015015027</v>
+        <v>9.962542542542664</v>
       </c>
     </row>
     <row r="49">
@@ -4607,69 +4627,69 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0008462758445894059</v>
+        <v>0.05891739427049858</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0008462758445894059</v>
+        <v>0.05891739427049858</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.7870644465147087</v>
+        <v>0.6903677516872619</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[0.3145507211990548, 1.2595781718303627]</t>
+          <t>[-0.07774493555029238, 1.4584804389248163]</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.002321111676974574</v>
+        <v>0.07561692032387546</v>
       </c>
       <c r="O49" t="n">
-        <v>0.002321111676974574</v>
+        <v>0.07561692032387546</v>
       </c>
       <c r="P49" t="n">
-        <v>-2.80510575275485</v>
+        <v>-1.069210712933463</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>[-3.484369029206697, -2.1258424763030033]</t>
+          <t>[-2.7799478536270046, 0.6415264277600778]</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.593262871108948e-08</v>
+        <v>0.2077708075056859</v>
       </c>
       <c r="S49" t="n">
-        <v>2.593262871108948e-08</v>
+        <v>0.2077708075056859</v>
       </c>
       <c r="T49" t="n">
-        <v>36.50345203149732</v>
+        <v>36.37151104463537</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>[36.24483173732341, 36.76207232567123]</t>
+          <t>[35.97446023737142, 36.76856185189932]</t>
         </is>
       </c>
       <c r="V49" t="n">
@@ -4679,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>10.5807807807809</v>
+        <v>4.051751751751802</v>
       </c>
       <c r="Y49" t="n">
-        <v>8.018618618618708</v>
+        <v>-2.431051051051079</v>
       </c>
       <c r="Z49" t="n">
-        <v>13.14294294294309</v>
+        <v>10.53455455455468</v>
       </c>
     </row>
     <row r="50">
@@ -4693,69 +4713,69 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>6.042635058989276e-09</v>
+        <v>0.1225619359726049</v>
       </c>
       <c r="I50" t="n">
-        <v>6.042635058989276e-09</v>
+        <v>0.1225619359726049</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.8904336812539242</v>
+        <v>0.3659764174064897</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[0.6486756110576941, 1.1321917514501543]</t>
+          <t>[-0.0749501765399394, 0.8069030113529188]</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>1.641905138516364e-07</v>
+        <v>0.09901174455353412</v>
       </c>
       <c r="O50" t="n">
-        <v>1.641905138516364e-07</v>
+        <v>0.09901174455353412</v>
       </c>
       <c r="P50" t="n">
-        <v>-2.64157940842385</v>
+        <v>-2.880579450138389</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>[-2.9057373492662344, -2.3774214675814656]</t>
+          <t>[-4.704527136907238, -1.0566317633695408]</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0.003536623325584909</v>
       </c>
       <c r="S50" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0.003536623325584909</v>
       </c>
       <c r="T50" t="n">
-        <v>36.25441669671361</v>
+        <v>36.43787164704146</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>[36.12695606808219, 36.38187732534502]</t>
+          <t>[36.18738536546036, 36.688357928622565]</t>
         </is>
       </c>
       <c r="V50" t="n">
@@ -4765,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>9.963963963964074</v>
+        <v>10.91589589589603</v>
       </c>
       <c r="Y50" t="n">
-        <v>8.96756756756767</v>
+        <v>4.004084084084134</v>
       </c>
       <c r="Z50" t="n">
-        <v>10.96036036036048</v>
+        <v>17.82770770770792</v>
       </c>
     </row>
     <row r="51">
@@ -4783,65 +4803,65 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>23.70000000000027</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.05085542522634856</v>
+        <v>0.2059000260334312</v>
       </c>
       <c r="I51" t="n">
-        <v>0.05085542522634856</v>
+        <v>0.2059000260334312</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.4447745405422801</v>
+        <v>0.6544880469580718</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[-0.03431423992480731, 0.9238633210093674]</t>
+          <t>[-0.3322874699021412, 1.6412635638182849]</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.06713802248077161</v>
+        <v>0.1823084480872446</v>
       </c>
       <c r="O51" t="n">
-        <v>0.06713802248077161</v>
+        <v>0.1823084480872446</v>
       </c>
       <c r="P51" t="n">
-        <v>-2.603842559732081</v>
+        <v>-1.094368612061309</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>[-4.352316549117392, -0.8553685703467706]</t>
+          <t>[-4.201369154350314, 2.0126319302276956]</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>0.005460892904608938</v>
+        <v>0.4719633735244115</v>
       </c>
       <c r="S51" t="n">
-        <v>0.005460892904608938</v>
+        <v>0.4719633735244115</v>
       </c>
       <c r="T51" t="n">
-        <v>36.21279926740314</v>
+        <v>36.24473307775251</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>[35.96270126523509, 36.462897269571194]</t>
+          <t>[35.72550979347588, 36.76395636202915]</t>
         </is>
       </c>
       <c r="V51" t="n">
@@ -4851,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>9.821621621621734</v>
+        <v>4.155795795795846</v>
       </c>
       <c r="Y51" t="n">
-        <v>3.226426426426463</v>
+        <v>-7.642842842842937</v>
       </c>
       <c r="Z51" t="n">
-        <v>16.416816816817</v>
+        <v>15.95443443443463</v>
       </c>
     </row>
     <row r="52">
@@ -4869,65 +4889,65 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-07-28</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>23.70000000000027</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0002281018485511543</v>
+        <v>2.734965121042876e-08</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0002281018485511543</v>
+        <v>2.734965121042876e-08</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.7709924798856491</v>
+        <v>1.668079932433514</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[0.36259477482839486, 1.1793901849429034]</t>
+          <t>[1.2032813582345234, 2.1328785066325047]</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.0007753134886727686</v>
+        <v>2.460938441917193e-07</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0007753134886727686</v>
+        <v>2.460938441917193e-07</v>
       </c>
       <c r="P52" t="n">
-        <v>-2.779947853627004</v>
+        <v>-1.912000333716311</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>[-3.3837374326953125, -2.176158274558695]</t>
+          <t>[-2.201316173686541, -1.62268449374608]</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.122769237113744e-09</v>
+        <v>5.740963260336684e-12</v>
       </c>
       <c r="S52" t="n">
-        <v>4.122769237113744e-09</v>
+        <v>5.740963260336684e-12</v>
       </c>
       <c r="T52" t="n">
-        <v>36.34527778006401</v>
+        <v>37.54306307212571</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>[36.12071902764994, 36.56983653247808]</t>
+          <t>[37.2840938414881, 37.80203230276332]</t>
         </is>
       </c>
       <c r="V52" t="n">
@@ -4937,13 +4957,13 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>10.485885885886</v>
+        <v>7.260700700700792</v>
       </c>
       <c r="Y52" t="n">
-        <v>8.208408408408497</v>
+        <v>6.162042042042122</v>
       </c>
       <c r="Z52" t="n">
-        <v>12.7633633633635</v>
+        <v>8.359359359359461</v>
       </c>
     </row>
     <row r="53">
@@ -4951,69 +4971,69 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>23.70000000000027</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>3.53051035704155e-05</v>
+        <v>0.05057096691412777</v>
       </c>
       <c r="I53" t="n">
-        <v>3.53051035704155e-05</v>
+        <v>0.05057096691412777</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.9672190408272137</v>
+        <v>1.003276895233046</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[0.5033126173207165, 1.4311254643337108]</t>
+          <t>[-0.09982356620004396, 2.106377356666137]</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.0002910235644864034</v>
+        <v>0.07244203175618913</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0002910235644864034</v>
+        <v>0.07244203175618913</v>
       </c>
       <c r="P53" t="n">
-        <v>-2.239053022378311</v>
+        <v>-2.339684618889696</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>[-2.691895206679542, -1.7862108380770798]</t>
+          <t>[-5.295737766411623, 0.6163685286322318]</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.186786224849357e-09</v>
+        <v>0.1146507764960971</v>
       </c>
       <c r="S53" t="n">
-        <v>1.186786224849357e-09</v>
+        <v>0.1146507764960971</v>
       </c>
       <c r="T53" t="n">
-        <v>36.13196215788231</v>
+        <v>37.86567674532517</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>[35.89115855261044, 36.372765763154185]</t>
+          <t>[37.30423608072405, 38.427117409926296]</t>
         </is>
       </c>
       <c r="V53" t="n">
@@ -5023,13 +5043,13 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>8.44564564564574</v>
+        <v>8.884804804804913</v>
       </c>
       <c r="Y53" t="n">
-        <v>6.737537537537614</v>
+        <v>-2.340620620620649</v>
       </c>
       <c r="Z53" t="n">
-        <v>10.15375375375387</v>
+        <v>20.11023023023048</v>
       </c>
     </row>
     <row r="54">
@@ -5041,65 +5061,65 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>23.70000000000027</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>4.49398539226209e-06</v>
+        <v>6.419934248103054e-06</v>
       </c>
       <c r="I54" t="n">
-        <v>4.49398539226209e-06</v>
+        <v>6.419934248103054e-06</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>1.12563242519137</v>
+        <v>2.243705937891598</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[0.670259095875867, 1.5810057545068723]</t>
+          <t>[1.3942447840436216, 3.0931670917395735]</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.303860369603285e-05</v>
+        <v>1.889991491821341e-05</v>
       </c>
       <c r="O54" t="n">
-        <v>4.303860369603285e-05</v>
+        <v>1.889991491821341e-05</v>
       </c>
       <c r="P54" t="n">
-        <v>-2.088105627611234</v>
+        <v>-2.96863209708585</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>[-2.5157899127846193, -1.6604213424378482]</t>
+          <t>[-3.408895331823159, -2.528368862348542]</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.483041023320197e-09</v>
+        <v>3.916644786272627e-12</v>
       </c>
       <c r="S54" t="n">
-        <v>1.483041023320197e-09</v>
+        <v>3.916644786272627e-12</v>
       </c>
       <c r="T54" t="n">
-        <v>36.1805478674039</v>
+        <v>37.52258569649723</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>[35.939279693985384, 36.42181604082241]</t>
+          <t>[37.02723798903328, 38.01793340396118]</t>
         </is>
       </c>
       <c r="V54" t="n">
@@ -5109,13 +5129,13 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>7.876276276276364</v>
+        <v>11.27319319319333</v>
       </c>
       <c r="Y54" t="n">
-        <v>6.263063063063132</v>
+        <v>9.601321321321437</v>
       </c>
       <c r="Z54" t="n">
-        <v>9.489489489489596</v>
+        <v>12.94506506506522</v>
       </c>
     </row>
     <row r="55">
@@ -5127,65 +5147,65 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>23.70000000000027</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>2.955785538549804e-08</v>
+        <v>0.0003564302876433167</v>
       </c>
       <c r="I55" t="n">
-        <v>2.955785538549804e-08</v>
+        <v>0.0003564302876433167</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>1.084588586811844</v>
+        <v>1.802485206606324</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[0.7752148821251268, 1.3939622914985605]</t>
+          <t>[0.7793878283089413, 2.8255825849037066]</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.529535648194582e-07</v>
+        <v>0.001447121118711925</v>
       </c>
       <c r="O55" t="n">
-        <v>3.529535648194582e-07</v>
+        <v>0.001447121118711925</v>
       </c>
       <c r="P55" t="n">
-        <v>-2.050368778919465</v>
+        <v>-2.754789954499158</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>[-2.352263568453619, -1.7484739893853103]</t>
+          <t>[-3.371158483131389, -2.138421425866927]</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.413269666907581e-12</v>
+        <v>6.864783630433635e-09</v>
       </c>
       <c r="S55" t="n">
-        <v>3.413269666907581e-12</v>
+        <v>6.864783630433635e-09</v>
       </c>
       <c r="T55" t="n">
-        <v>36.14539128250141</v>
+        <v>37.00995920384578</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>[35.97627808301581, 36.314504481987]</t>
+          <t>[36.4653234230655, 37.554594984626064]</t>
         </is>
       </c>
       <c r="V55" t="n">
@@ -5195,13 +5215,13 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>7.73393393393402</v>
+        <v>10.46114114114127</v>
       </c>
       <c r="Y55" t="n">
-        <v>6.595195195195268</v>
+        <v>8.120520520520623</v>
       </c>
       <c r="Z55" t="n">
-        <v>8.872672672672772</v>
+        <v>12.80176176176191</v>
       </c>
     </row>
     <row r="56">
@@ -5213,65 +5233,65 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>23.70000000000027</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>4.388582452996559e-08</v>
+        <v>0.0005094095434905466</v>
       </c>
       <c r="I56" t="n">
-        <v>4.388582452996559e-08</v>
+        <v>0.0005094095434905466</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.391153966858074</v>
+        <v>1.453713394806051</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>[1.0008734599929205, 1.7814344737232268]</t>
+          <t>[0.5781505642246749, 2.329276225387428]</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>2.733910551278029e-07</v>
+        <v>0.002383031000211977</v>
       </c>
       <c r="O56" t="n">
-        <v>2.733910551278029e-07</v>
+        <v>0.002383031000211977</v>
       </c>
       <c r="P56" t="n">
-        <v>-1.861684535460618</v>
+        <v>-2.151000375430849</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>[-2.151000375430849, -1.572368695490388]</t>
+          <t>[-2.742211004935235, -1.5597897459264627]</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>9.513723142617891e-12</v>
+        <v>1.989059708051855e-07</v>
       </c>
       <c r="S56" t="n">
-        <v>9.513723142617891e-12</v>
+        <v>1.989059708051855e-07</v>
       </c>
       <c r="T56" t="n">
-        <v>36.13241083354978</v>
+        <v>37.72012370584223</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>[35.91081749935174, 36.35400416774783]</t>
+          <t>[37.267306229712595, 38.17294118197187]</t>
         </is>
       </c>
       <c r="V56" t="n">
@@ -5281,13 +5301,13 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>7.0222222222223</v>
+        <v>8.168288288288386</v>
       </c>
       <c r="Y56" t="n">
-        <v>5.930930930931</v>
+        <v>5.92320320320327</v>
       </c>
       <c r="Z56" t="n">
-        <v>8.113513513513601</v>
+        <v>10.4133733733735</v>
       </c>
     </row>
     <row r="57">
@@ -5295,69 +5315,69 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>23.70000000000027</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03212269185774563</v>
+        <v>0.4505374915797609</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03212269185774563</v>
+        <v>0.4505374915797609</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.620284212550942</v>
+        <v>0.3152321454915779</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>[0.02493643873891216, 1.2156319863629719]</t>
+          <t>[-0.31487411778794794, 0.9453384087711036]</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.04190523572863825</v>
+        <v>0.3099860107032169</v>
       </c>
       <c r="O57" t="n">
-        <v>0.04190523572863825</v>
+        <v>0.3099860107032169</v>
       </c>
       <c r="P57" t="n">
-        <v>-1.937158232844157</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>[-3.3334216344396204, -0.5408948312486928]</t>
+          <t>[-1.478026573760964, 4.786290309072738]</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>0.008855843727388679</v>
+        <v>0.2845197543813063</v>
       </c>
       <c r="S57" t="n">
-        <v>0.008855843727388679</v>
+        <v>0.2845197543813063</v>
       </c>
       <c r="T57" t="n">
-        <v>36.34676814838327</v>
+        <v>36.77241976437288</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>[36.028387461481834, 36.665148835284704]</t>
+          <t>[36.413695462526015, 37.131144066219754]</t>
         </is>
       </c>
       <c r="V57" t="n">
@@ -5367,13 +5387,13 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>7.306906906906988</v>
+        <v>17.57853853853875</v>
       </c>
       <c r="Y57" t="n">
-        <v>2.040240240240261</v>
+        <v>5.684364364364432</v>
       </c>
       <c r="Z57" t="n">
-        <v>12.57357357357371</v>
+        <v>29.47271271271307</v>
       </c>
     </row>
     <row r="58">
@@ -5381,69 +5401,69 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>23.70000000000027</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1.136026839265725e-08</v>
+        <v>0.8045224086123699</v>
       </c>
       <c r="I58" t="n">
-        <v>1.136026839265725e-08</v>
+        <v>0.8045224086123699</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>1.201074187269178</v>
+        <v>0.3209873223608923</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[0.8989408982881244, 1.5032074762502319]</t>
+          <t>[-1.024083573301521, 1.6660582180233057]</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.844664536207688e-08</v>
+        <v>0.6248526445802882</v>
       </c>
       <c r="O58" t="n">
-        <v>4.844664536207688e-08</v>
+        <v>0.6248526445802882</v>
       </c>
       <c r="P58" t="n">
-        <v>-1.849105585896695</v>
+        <v>-0.3773684869176925</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>[-2.125842476303003, -1.572368695490388]</t>
+          <t>[-3.5158164031165042, 2.761079429281119]</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.657385588302532e-12</v>
+        <v>0.8049757044624668</v>
       </c>
       <c r="S58" t="n">
-        <v>4.657385588302532e-12</v>
+        <v>0.8049757044624668</v>
       </c>
       <c r="T58" t="n">
-        <v>36.12527577581503</v>
+        <v>37.30556176196959</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>[35.948622492107866, 36.3019290595222]</t>
+          <t>[36.59262051219308, 38.018503011746105]</t>
         </is>
       </c>
       <c r="V58" t="n">
@@ -5453,13 +5473,13 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>6.974774774774854</v>
+        <v>1.433033033033048</v>
       </c>
       <c r="Y58" t="n">
-        <v>5.930930930931001</v>
+        <v>-10.48502502502515</v>
       </c>
       <c r="Z58" t="n">
-        <v>8.018618618618707</v>
+        <v>13.35109109109125</v>
       </c>
     </row>
     <row r="59">
@@ -5467,69 +5487,69 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>23.70000000000027</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0008894281356197631</v>
+        <v>0.4754960515712201</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0008894281356197631</v>
+        <v>0.4754960515712201</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.8843821393220175</v>
+        <v>0.4077559760498097</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>[0.37905204814603266, 1.3897122304980023]</t>
+          <t>[-0.5146780912039652, 1.3301900433035847]</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.00153297192732782</v>
+        <v>0.368388545691464</v>
       </c>
       <c r="O59" t="n">
-        <v>0.00153297192732782</v>
+        <v>0.368388545691464</v>
       </c>
       <c r="P59" t="n">
-        <v>-1.773631888513156</v>
+        <v>-2.025210879791619</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>[-2.4528951649650037, -1.094368612061309]</t>
+          <t>[-5.15736932120847, 1.1069475616252324]</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.186934298231691e-05</v>
+        <v>0.1930831281085397</v>
       </c>
       <c r="S59" t="n">
-        <v>2.186934298231691e-05</v>
+        <v>0.1930831281085397</v>
       </c>
       <c r="T59" t="n">
-        <v>36.34408969123757</v>
+        <v>37.02716534464814</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>[36.054819113724676, 36.633360268750465]</t>
+          <t>[36.54498751593936, 37.50934317335692]</t>
         </is>
       </c>
       <c r="V59" t="n">
@@ -5539,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>6.690090090090166</v>
+        <v>7.690610610610705</v>
       </c>
       <c r="Y59" t="n">
-        <v>4.127927927927974</v>
+        <v>-4.203563563563614</v>
       </c>
       <c r="Z59" t="n">
-        <v>9.252252252252358</v>
+        <v>19.58478478478502</v>
       </c>
     </row>
     <row r="60">
@@ -5557,65 +5577,65 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>23.70000000000027</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>3.395151637630711e-05</v>
+        <v>0.0008679467587746625</v>
       </c>
       <c r="I60" t="n">
-        <v>3.395151637630711e-05</v>
+        <v>0.0008679467587746625</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>1.230563120445499</v>
+        <v>0.9555209930131952</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>[0.7275944077692174, 1.7335318331217806]</t>
+          <t>[0.45026770532086857, 1.4607742807055217]</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.870755919883507e-05</v>
+        <v>0.0007626216282621279</v>
       </c>
       <c r="O60" t="n">
-        <v>4.870755919883507e-05</v>
+        <v>0.0007626216282621279</v>
       </c>
       <c r="P60" t="n">
-        <v>-1.74847398938531</v>
+        <v>-1.522052897234695</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>[-2.239053022378311, -1.2578949563923096]</t>
+          <t>[-2.213895123250465, -0.830210671218925]</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.738593609663553e-07</v>
+        <v>0.000164344348014378</v>
       </c>
       <c r="S60" t="n">
-        <v>2.738593609663553e-07</v>
+        <v>0.000164344348014378</v>
       </c>
       <c r="T60" t="n">
-        <v>36.12396948209555</v>
+        <v>37.32010961440491</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>[35.81971743757867, 36.428221526612425]</t>
+          <t>[37.00793166229764, 37.63228756651218]</t>
         </is>
       </c>
       <c r="V60" t="n">
@@ -5625,2937 +5645,13 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>6.59519519519527</v>
+        <v>5.779899899899974</v>
       </c>
       <c r="Y60" t="n">
-        <v>4.744744744744799</v>
+        <v>3.152672672672716</v>
       </c>
       <c r="Z60" t="n">
-        <v>8.44564564564574</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2022-08-06</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.004078114687487311</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.004078114687487311</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>0.7653515941066864</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>[0.23109425690340402, 1.2996089313099688]</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>0.007154351270220571</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0.007154351270220571</v>
-      </c>
-      <c r="P61" t="n">
-        <v>-1.245316006828387</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>[-2.0000529806637726, -0.49057903299300065]</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>0.002506409325398584</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0.002506409325398584</v>
-      </c>
-      <c r="T61" t="n">
-        <v>36.24324417409886</v>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>[35.94937267387314, 36.53711567432458]</t>
-        </is>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="n">
-        <v>4.683423423423474</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>1.844984984985004</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>7.521861861861943</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2022-08-07</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.0003642363751290567</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.0003642363751290567</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1.083929710588105</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>[0.4927809142241628, 1.6750785069520475]</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>0.001014636555062509</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.001014636555062509</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-1.220158107700541</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>[-1.8491055858966954, -0.5912106295043857]</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>0.0005983714377171268</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0.0005983714377171268</v>
-      </c>
-      <c r="T62" t="n">
-        <v>36.14382048096766</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>[35.81821308058025, 36.469427881355074]</t>
-        </is>
-      </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="n">
-        <v>4.58880880880886</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>2.223443443443469</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>6.954174174174251</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2022-08-08</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1.827579055979633e-06</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.827579055979633e-06</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1.194323827503879</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>[0.7604968744328175, 1.6281507805749413]</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>1.105997299299943e-05</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.105997299299943e-05</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-1.182421259008771</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>[-1.572368695490388, -0.792473822527155]</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>2.97306405205866e-06</v>
-      </c>
-      <c r="S63" t="n">
-        <v>2.97306405205866e-06</v>
-      </c>
-      <c r="T63" t="n">
-        <v>36.32206162972523</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>[36.08248155622847, 36.561641703221994]</t>
-        </is>
-      </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="n">
-        <v>4.446886886886936</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>2.980360360360392</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>5.913413413413481</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2.053302347149177e-06</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2.053302347149177e-06</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1.039226071626583</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>[0.6977384366204511, 1.380713706632715]</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>2.8257987785274e-06</v>
-      </c>
-      <c r="O64" t="n">
-        <v>2.8257987785274e-06</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-1.635263443310002</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>[-2.0000529806637726, -1.2704739059562318]</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>6.523352968912377e-09</v>
-      </c>
-      <c r="S64" t="n">
-        <v>6.523352968912377e-09</v>
-      </c>
-      <c r="T64" t="n">
-        <v>36.54505946781558</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>[36.33498028597487, 36.75513864965628]</t>
-        </is>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>6.149949949950013</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>4.778038038038084</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>7.521861861861942</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.0002295949853039492</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.0002295949853039492</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>0.8082051134480217</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>[0.3646402704745988, 1.2517699564214446]</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>0.001074264712093154</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.001074264712093154</v>
-      </c>
-      <c r="P65" t="n">
-        <v>-0.9308422677303092</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>[-1.4843160485429259, -0.37736848691769254]</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>0.002144791477012742</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0.002144791477012742</v>
-      </c>
-      <c r="T65" t="n">
-        <v>35.82553279068131</v>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>[35.59172691355234, 36.05933866781027]</t>
-        </is>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="n">
-        <v>3.500740740740781</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>1.419219219219235</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>5.582262262262327</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2022-08-11</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.006314718799024455</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.006314718799024455</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>0.9701508418586471</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>[0.21750855535711722, 1.722793128360177]</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>0.01399831970860532</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.01399831970860532</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-0.5157369321208467</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>[-1.2704739059562327, 0.23900004171453926]</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>0.1699766098460251</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0.1699766098460251</v>
-      </c>
-      <c r="T66" t="n">
-        <v>36.15355511592772</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>[35.75705545510668, 36.55005477674875]</t>
-        </is>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="n">
-        <v>1.939599599599617</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>-0.8988388388388526</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>4.778038038038087</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2022-08-12</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>6.335335367424477e-09</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6.335335367424477e-09</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1.39838682225998</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>[1.014330983814986, 1.782442660704973]</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>1.965280798099656e-07</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1.965280798099656e-07</v>
-      </c>
-      <c r="P67" t="n">
-        <v>-0.5408948312486928</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>[-0.8302106712189241, -0.2515789912784614]</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>0.0008489399894195948</v>
-      </c>
-      <c r="S67" t="n">
-        <v>0.0008489399894195948</v>
-      </c>
-      <c r="T67" t="n">
-        <v>35.98791357607265</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>[35.78771288008615, 36.18811427205915]</t>
-        </is>
-      </c>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="n">
-        <v>2.034214214214234</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>0.9461461461461538</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>3.122282282282315</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.0001206461065775821</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.0001206461065775821</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1.029120465666658</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>[0.5496889422185554, 1.5085519891147605]</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>0.0002142785520706791</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.0002142785520706791</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-0.1886842434588463</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>[-0.7421580242714629, 0.3647895373537704]</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>0.4861466168090538</v>
-      </c>
-      <c r="S68" t="n">
-        <v>0.4861466168090538</v>
-      </c>
-      <c r="T68" t="n">
-        <v>36.15454170101496</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>[35.86986519188598, 36.439218210143935]</t>
-        </is>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="n">
-        <v>0.7096096096096147</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>-1.371911911911931</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>2.791131131131161</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2022-08-14</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2.394021614171571e-06</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2.394021614171571e-06</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1.215203771131971</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>[0.7607613116456626, 1.6696462306182802]</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>1.614408082240004e-05</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1.614408082240004e-05</v>
-      </c>
-      <c r="P69" t="n">
-        <v>-0.5408948312486928</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>[-0.9434212172942322, -0.13836844520315328]</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>0.01086320811027108</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0.01086320811027108</v>
-      </c>
-      <c r="T69" t="n">
-        <v>35.95087278958829</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>[35.70034673310705, 36.20139884606953]</t>
-        </is>
-      </c>
-      <c r="V69" t="n">
-        <v>0</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="n">
-        <v>2.034214214214234</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>0.5203803803803826</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>3.548048048048086</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2022-08-15</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>6.510800369952108e-07</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6.510800369952108e-07</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1.391239393529052</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>[0.919508053645842, 1.8629707334122614]</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>4.375760992658684e-06</v>
-      </c>
-      <c r="O70" t="n">
-        <v>4.375760992658684e-06</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-0.3899474364816164</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>[-0.767315923399309, -0.012578949563923914]</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>0.04345455367913065</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0.04345455367913065</v>
-      </c>
-      <c r="T70" t="n">
-        <v>36.05053837049999</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>[35.786635332909036, 36.31444140809095]</t>
-        </is>
-      </c>
-      <c r="V70" t="n">
-        <v>0</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="n">
-        <v>1.466526526526547</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>0.04730730730731358</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>2.88574574574578</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2022-08-16</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>3.311610642842133e-05</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.311610642842133e-05</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>0.8848672908627933</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>[0.4592495000008654, 1.3104850817247211]</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>0.0002997259884829351</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.0002997259884829351</v>
-      </c>
-      <c r="P71" t="n">
-        <v>-0.4780000834290776</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>[-0.9811580659860013, 0.02515789912784605]</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>0.06148379805810289</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0.06148379805810289</v>
-      </c>
-      <c r="T71" t="n">
-        <v>36.0795551322072</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>[35.8593522757846, 36.29975798862981]</t>
-        </is>
-      </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="n">
-        <v>1.797677677677697</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>-0.09461461461461496</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>3.68996996997001</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2022-08-17</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1.511976402968074e-07</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1.511976402968074e-07</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1.249527371774953</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>[0.8444891821419418, 1.6545655614079635]</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>2.330774819370163e-06</v>
-      </c>
-      <c r="O72" t="n">
-        <v>2.330774819370163e-06</v>
-      </c>
-      <c r="P72" t="n">
-        <v>-0.4780000834290776</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>[-0.8302106712189241, -0.12578949563923114]</t>
-        </is>
-      </c>
-      <c r="R72" t="n">
-        <v>0.01020502360918085</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0.01020502360918085</v>
-      </c>
-      <c r="T72" t="n">
-        <v>36.21518830716612</v>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>[35.999202625142374, 36.43117398918986]</t>
-        </is>
-      </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="n">
-        <v>1.797677677677697</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>0.4730730730730792</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>3.122282282282315</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2022-08-18</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>8.06699151922885e-10</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8.06699151922885e-10</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1.086496305818873</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>[0.8635452126515055, 1.30944739898624]</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>1.532543203452974e-09</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1.532543203452974e-09</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0.1320789704211922</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>[-0.081763172165501, 0.3459211130078854]</t>
-        </is>
-      </c>
-      <c r="R73" t="n">
-        <v>0.2129678690282644</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0.2129678690282644</v>
-      </c>
-      <c r="T73" t="n">
-        <v>36.34163032722574</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>[36.202383414443815, 36.48087724000767]</t>
-        </is>
-      </c>
-      <c r="V73" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X73" t="n">
-        <v>23.13327327327352</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>22.32904904904929</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>23.93749749749776</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2022-08-19</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1.483565603699333e-09</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.483565603699333e-09</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1.214708557694639</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>[0.9675652276547559, 1.4618518877345217]</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>1.31876887188298e-09</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.31876887188298e-09</v>
-      </c>
-      <c r="P74" t="n">
-        <v>-0.03773684869176908</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>[-0.27673689040630833, 0.20126319302277018]</t>
-        </is>
-      </c>
-      <c r="R74" t="n">
-        <v>0.7458910850170151</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0.7458910850170151</v>
-      </c>
-      <c r="T74" t="n">
-        <v>36.5233248840625</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>[36.36235434305121, 36.6842954250738]</t>
-        </is>
-      </c>
-      <c r="V74" t="n">
-        <v>0</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0.1419219219219237</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>-0.7569169169169265</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>1.040760760760774</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2022-08-20</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3.382560155307246e-07</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3.382560155307246e-07</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1.225119202593856</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>[0.8353010030239894, 1.6149374021637222]</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>1.787566189737078e-06</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1.787566189737078e-06</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0.2578684660604234</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>[-0.08176317216550011, 0.5975001042863468]</t>
-        </is>
-      </c>
-      <c r="R75" t="n">
-        <v>0.1292894920489263</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0.1292894920489263</v>
-      </c>
-      <c r="T75" t="n">
-        <v>36.37258822128311</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>[36.14894815233829, 36.59622829022793]</t>
-        </is>
-      </c>
-      <c r="V75" t="n">
-        <v>0</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0</v>
-      </c>
-      <c r="X75" t="n">
-        <v>22.66020020020045</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>21.38290290290314</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>23.93749749749776</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2022-08-21</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>8.810977084605653e-07</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8.810977084605653e-07</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1.098534566130663</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>[0.7602639924717032, 1.436805139789623]</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>1.110909575663399e-06</v>
-      </c>
-      <c r="O76" t="n">
-        <v>1.110909575663399e-06</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0.06918422260157797</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>[-0.3081842643161137, 0.4465527095192696]</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>0.7068385405482323</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.7068385405482323</v>
-      </c>
-      <c r="T76" t="n">
-        <v>36.11038457654487</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>[35.89733691594175, 36.323432237148]</t>
-        </is>
-      </c>
-      <c r="V76" t="n">
-        <v>0</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="n">
-        <v>23.36980980981006</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>21.95059059059083</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>24.78902902902929</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2022-08-22</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>3.401951820247717e-08</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3.401951820247717e-08</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1.207714233411085</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>[0.8661912948781527, 1.5492371719440179]</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>3.090297111540963e-07</v>
-      </c>
-      <c r="O77" t="n">
-        <v>3.090297111540963e-07</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0.3459211130078854</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>[0.05660527303765406, 0.6352369529781168]</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>0.02139284571530231</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0.02139284571530231</v>
-      </c>
-      <c r="T77" t="n">
-        <v>36.27015791153488</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>[36.078674047693326, 36.461641775376435]</t>
-        </is>
-      </c>
-      <c r="V77" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="n">
-        <v>22.32904904904929</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>21.24098098098121</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>23.41711711711737</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2022-08-23</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1.821133782664575e-07</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1.821133782664575e-07</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>0.9658562206727268</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>[0.6454370694177349, 1.2862753719277187]</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>3.230456879999011e-06</v>
-      </c>
-      <c r="O78" t="n">
-        <v>3.230456879999011e-06</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0.5220264069028087</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>[0.16981581911296217, 0.8742369946926551]</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>0.005648770281374782</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0.005648770281374782</v>
-      </c>
-      <c r="T78" t="n">
-        <v>36.3342313174464</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>[36.16489410855271, 36.50356852634008]</t>
-        </is>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>21.66674674674698</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>20.34214214214236</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>22.9913513513516</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2022-08-24</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1.314051388046078e-05</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1.314051388046078e-05</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>0.9105160596908455</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>[0.5398271223255797, 1.2812049970561112]</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>4.645303804795553e-05</v>
-      </c>
-      <c r="O79" t="n">
-        <v>4.645303804795553e-05</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0.1949737182408073</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>[-0.27044741562434726, 0.6603948521059619]</t>
-        </is>
-      </c>
-      <c r="R79" t="n">
-        <v>0.3935014778325949</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0.3935014778325949</v>
-      </c>
-      <c r="T79" t="n">
-        <v>36.35352358396854</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>[36.141005577959454, 36.56604158997762]</t>
-        </is>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>22.89673673673699</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>21.1463663663666</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>24.64710710710738</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>23.63000000000025</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.0003247372149403072</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.0003247372149403072</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>0.7276157575082003</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>[0.3169411046772517, 1.138290410339149]</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>0.001377668264167298</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.001377668264167298</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0.6478159025420398</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>[0.10692107129334705, 1.1887107337907326]</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>0.02119966997092959</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0.02119966997092959</v>
-      </c>
-      <c r="T80" t="n">
-        <v>36.29244920928906</v>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>[36.07406596833943, 36.51083245023869]</t>
-        </is>
-      </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>0</v>
-      </c>
-      <c r="X80" t="n">
-        <v>21.1936736736739</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>19.15945945945966</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>23.22788788788813</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2022-08-26</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1.548707977416797e-06</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1.548707977416797e-06</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>0.6710914271946464</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>[0.4418840402619786, 0.9002988141273143]</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>4.835534203939673e-06</v>
-      </c>
-      <c r="O81" t="n">
-        <v>4.835534203939673e-06</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0.2956053147521924</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>[-0.09434212172942313, 0.685552751233808]</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>0.1298608239878303</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.1298608239878303</v>
-      </c>
-      <c r="T81" t="n">
-        <v>36.55989345374675</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>[36.42485207909209, 36.694934828401415]</t>
-        </is>
-      </c>
-      <c r="V81" t="n">
-        <v>0</v>
-      </c>
-      <c r="W81" t="n">
-        <v>0</v>
-      </c>
-      <c r="X81" t="n">
-        <v>22.4801601601604</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>21.01611611611634</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>23.94420420420446</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2022-08-27</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.004101505560683227</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.004101505560683227</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>0.4926596460678425</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>[0.13234885769409388, 0.8529704344415912]</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>0.009730555112400729</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.009730555112400729</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0.9497106920761942</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>[0.2327105669325773, 1.666710817219811]</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>0.01187702752213848</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0.01187702752213848</v>
-      </c>
-      <c r="T82" t="n">
-        <v>36.32190708822402</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>[36.13160919353164, 36.51220498291641]</t>
-        </is>
-      </c>
-      <c r="V82" t="n">
-        <v>0</v>
-      </c>
-      <c r="W82" t="n">
-        <v>0</v>
-      </c>
-      <c r="X82" t="n">
-        <v>20.02434434434456</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>17.33239239239257</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>22.71629629629654</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2022-08-28</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2.221739446017779e-05</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2.221739446017779e-05</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>0.7233593571822645</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>[0.4108398532325168, 1.0358788611320122]</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>9.321195549483186e-05</v>
-      </c>
-      <c r="O83" t="n">
-        <v>9.321195549483186e-05</v>
-      </c>
-      <c r="P83" t="n">
-        <v>1.276763380738194</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>[0.8113422468730391, 1.7421845146033483]</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>1.158724811967105e-05</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1.158724811967105e-05</v>
-      </c>
-      <c r="T83" t="n">
-        <v>36.44867480102872</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>[36.27578119919194, 36.62156840286549]</t>
-        </is>
-      </c>
-      <c r="V83" t="n">
-        <v>0</v>
-      </c>
-      <c r="W83" t="n">
-        <v>0</v>
-      </c>
-      <c r="X83" t="n">
-        <v>18.79643643643664</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>17.04902902902921</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>20.54384384384406</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.002427884014772674</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.002427884014772674</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>0.6949638170497252</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>[0.2526872847050754, 1.137240349394375]</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>0.003676092429455657</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.003676092429455657</v>
-      </c>
-      <c r="P84" t="n">
-        <v>1.842816111114733</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>[1.1006580868432705, 2.5849741353861964]</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>4.075405784953468e-05</v>
-      </c>
-      <c r="S84" t="n">
-        <v>4.075405784953468e-05</v>
-      </c>
-      <c r="T84" t="n">
-        <v>36.3051455424664</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>[36.05368815954282, 36.556602925389974]</t>
-        </is>
-      </c>
-      <c r="V84" t="n">
-        <v>0</v>
-      </c>
-      <c r="W84" t="n">
-        <v>0</v>
-      </c>
-      <c r="X84" t="n">
-        <v>16.67121121121139</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>13.88480480480495</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>19.45761761761782</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.002900173346584212</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.002900173346584212</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>0.8047687312249394</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>[0.23375186880674903, 1.3757855936431298]</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>0.007984542352662993</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.007984542352662993</v>
-      </c>
-      <c r="P85" t="n">
-        <v>2.610132034514042</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>[1.9057108589343486, 3.3145532100937354]</t>
-        </is>
-      </c>
-      <c r="R85" t="n">
-        <v>1.493896861770594e-07</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1.493896861770594e-07</v>
-      </c>
-      <c r="T85" t="n">
-        <v>36.20751401258019</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>[35.90779008477162, 36.50723794038876]</t>
-        </is>
-      </c>
-      <c r="V85" t="n">
-        <v>0</v>
-      </c>
-      <c r="W85" t="n">
-        <v>0</v>
-      </c>
-      <c r="X85" t="n">
-        <v>13.7903503503505</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>11.14562562562574</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>16.43507507507525</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2022-08-31</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1.416883742666464e-05</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1.416883742666464e-05</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>0.8189388843406746</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>[0.4582040819817266, 1.1796736866996227]</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0.0001160814317702208</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.0001160814317702208</v>
-      </c>
-      <c r="P86" t="n">
-        <v>2.069237203265349</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>[1.6163950189641163, 2.5220793875665812]</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>4.69716798789932e-09</v>
-      </c>
-      <c r="S86" t="n">
-        <v>4.69716798789932e-09</v>
-      </c>
-      <c r="T86" t="n">
-        <v>36.21824511387497</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>[36.02849473664287, 36.40799549110707]</t>
-        </is>
-      </c>
-      <c r="V86" t="n">
-        <v>0</v>
-      </c>
-      <c r="W86" t="n">
-        <v>0</v>
-      </c>
-      <c r="X86" t="n">
-        <v>15.82112112112129</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>14.12094094094109</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>17.52130130130149</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2022-09-01</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="n">
-        <v>3.357450338858925e-07</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.357450338858925e-07</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>0.8000378695723924</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>[0.5225890736131724, 1.0774866655316124]</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>5.955182601491416e-06</v>
-      </c>
-      <c r="O87" t="n">
-        <v>5.955182601491416e-06</v>
-      </c>
-      <c r="P87" t="n">
-        <v>2.383710942363427</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>[2.044079304137503, 2.72334258058935]</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>1.819877581965557e-12</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1.819877581965557e-12</v>
-      </c>
-      <c r="T87" t="n">
-        <v>36.20766140462509</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>[36.062823984481696, 36.352498824768475]</t>
-        </is>
-      </c>
-      <c r="V87" t="n">
-        <v>0</v>
-      </c>
-      <c r="W87" t="n">
-        <v>0</v>
-      </c>
-      <c r="X87" t="n">
-        <v>14.64044044044059</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>13.36530530530545</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>15.91557557557574</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2022-09-02</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2.062250370471475e-11</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2.062250370471475e-11</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>0.9883898638958755</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>[0.7986253865195785, 1.1781543412721724]</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>4.69814631642862e-10</v>
-      </c>
-      <c r="O88" t="n">
-        <v>4.69814631642862e-10</v>
-      </c>
-      <c r="P88" t="n">
-        <v>1.981184556317888</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>[1.7799213632951183, 2.182447749340657]</t>
-        </is>
-      </c>
-      <c r="R88" t="n">
-        <v>2.220446049250313e-15</v>
-      </c>
-      <c r="S88" t="n">
-        <v>2.220446049250313e-15</v>
-      </c>
-      <c r="T88" t="n">
-        <v>36.43716845384864</v>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>[36.33450794139682, 36.53982896630046]</t>
-        </is>
-      </c>
-      <c r="V88" t="n">
-        <v>0</v>
-      </c>
-      <c r="W88" t="n">
-        <v>0</v>
-      </c>
-      <c r="X88" t="n">
-        <v>16.15171171171188</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>15.39607607607624</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>16.90734734734752</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2022-09-03</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>3.836153616987303e-12</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.836153616987303e-12</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1.097873619183222</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>[0.9013255719747839, 1.29442166639166]</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>1.322810749826431e-10</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1.322810749826431e-10</v>
-      </c>
-      <c r="P89" t="n">
-        <v>2.106974051957119</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>[1.9182898084982725, 2.295658295415965]</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="S89" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="T89" t="n">
-        <v>36.50747550021956</v>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>[36.40296059216254, 36.61199040827657]</t>
-        </is>
-      </c>
-      <c r="V89" t="n">
-        <v>0</v>
-      </c>
-      <c r="W89" t="n">
-        <v>0</v>
-      </c>
-      <c r="X89" t="n">
-        <v>15.67943943943961</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>14.97103103103119</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>16.38784784784802</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2022-09-04</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1.300404228743446e-12</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1.300404228743446e-12</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1.171578000404164</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>[0.9654086679298004, 1.3777473328785277]</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>9.653100541129334e-11</v>
-      </c>
-      <c r="O90" t="n">
-        <v>9.653100541129334e-11</v>
-      </c>
-      <c r="P90" t="n">
-        <v>2.408868841491273</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>[2.232763547596349, 2.5849741353861972]</t>
-        </is>
-      </c>
-      <c r="R90" t="n">
-        <v>0</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0</v>
-      </c>
-      <c r="T90" t="n">
-        <v>36.54425774299875</v>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>[36.43818320637752, 36.65033227961998]</t>
-        </is>
-      </c>
-      <c r="V90" t="n">
-        <v>0</v>
-      </c>
-      <c r="W90" t="n">
-        <v>0</v>
-      </c>
-      <c r="X90" t="n">
-        <v>14.54598598598614</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>13.88480480480495</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>15.20716716716733</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2022-09-05</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1.091640022821139e-08</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1.091640022821139e-08</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1.073173407733581</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>[0.7707932220178932, 1.3755535934492684]</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>2.922833144403114e-07</v>
-      </c>
-      <c r="O91" t="n">
-        <v>2.922833144403114e-07</v>
-      </c>
-      <c r="P91" t="n">
-        <v>2.584974135386196</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>[2.295658295415965, 2.874289975356427]</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>1.620925615952729e-14</v>
-      </c>
-      <c r="S91" t="n">
-        <v>1.620925615952729e-14</v>
-      </c>
-      <c r="T91" t="n">
-        <v>36.54647231020022</v>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>[36.387809140219716, 36.705135480180715]</t>
-        </is>
-      </c>
-      <c r="V91" t="n">
-        <v>0</v>
-      </c>
-      <c r="W91" t="n">
-        <v>0</v>
-      </c>
-      <c r="X91" t="n">
-        <v>13.88480480480495</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>12.79857857857872</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>14.97103103103119</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2022-09-06</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>4.919443741258078e-10</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4.919443741258078e-10</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1.045274806938082</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>[0.7913792838319793, 1.2991703300441841]</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>2.728534753693168e-08</v>
-      </c>
-      <c r="O92" t="n">
-        <v>2.728534753693168e-08</v>
-      </c>
-      <c r="P92" t="n">
-        <v>2.295658295415965</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>[2.0692372032653488, 2.5220793875665812]</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>1.332267629550188e-15</v>
-      </c>
-      <c r="S92" t="n">
-        <v>1.332267629550188e-15</v>
-      </c>
-      <c r="T92" t="n">
-        <v>36.47628851613732</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>[36.34709150861798, 36.60548552365667]</t>
-        </is>
-      </c>
-      <c r="V92" t="n">
-        <v>0</v>
-      </c>
-      <c r="W92" t="n">
-        <v>0</v>
-      </c>
-      <c r="X92" t="n">
-        <v>14.97103103103119</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>14.12094094094109</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>15.82112112112129</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2022-09-07</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2.781012087282875e-10</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2.781012087282875e-10</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1.371516511375628</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>[1.0664542583834624, 1.6765787643677932]</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>6.205910452194985e-09</v>
-      </c>
-      <c r="O93" t="n">
-        <v>6.205910452194985e-09</v>
-      </c>
-      <c r="P93" t="n">
-        <v>2.283079345852042</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>[2.0566582537014266, 2.5095004380026573]</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>1.332267629550188e-15</v>
-      </c>
-      <c r="S93" t="n">
-        <v>1.332267629550188e-15</v>
-      </c>
-      <c r="T93" t="n">
-        <v>36.39058605661114</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>[36.22628785754801, 36.554884255674274]</t>
-        </is>
-      </c>
-      <c r="V93" t="n">
-        <v>0</v>
-      </c>
-      <c r="W93" t="n">
-        <v>0</v>
-      </c>
-      <c r="X93" t="n">
-        <v>15.01825825825841</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>14.16816816816832</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>15.86834834834851</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2022-09-08</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2.163794698972765e-10</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2.163794698972765e-10</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>0.5475213171429658</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>[0.4491333028789555, 0.6459093314069762]</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>2.043779478988483e-08</v>
-      </c>
-      <c r="O94" t="n">
-        <v>2.043779478988483e-08</v>
-      </c>
-      <c r="P94" t="n">
-        <v>2.106974051957119</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>[1.9434477076261185, 2.270500396288119]</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>5.6710192097853e-13</v>
-      </c>
-      <c r="S94" t="n">
-        <v>5.6710192097853e-13</v>
-      </c>
-      <c r="T94" t="n">
-        <v>36.35565267707161</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>[36.30145679803516, 36.40984855610806]</t>
-        </is>
-      </c>
-      <c r="V94" t="n">
-        <v>0</v>
-      </c>
-      <c r="W94" t="n">
-        <v>0</v>
-      </c>
-      <c r="X94" t="n">
-        <v>15.67943943943961</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>15.06548548548565</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>16.29339339339356</v>
+        <v>8.407127127127232</v>
       </c>
     </row>
   </sheetData>
